--- a/new_system/systems/base.xlsx
+++ b/new_system/systems/base.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーステータス" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="ドラゴン" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -441,18 +441,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E500"/>
+  <dimension ref="A1:G500"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col width="8.75" customWidth="1" style="2" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="8.75" customWidth="1" style="2" min="3" max="11"/>
-    <col width="8.75" customWidth="1" style="2" min="12" max="16384"/>
+    <col width="8.75" customWidth="1" style="2" min="3" max="13"/>
+    <col width="8.75" customWidth="1" style="2" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -557,6 +557,9 @@
         <is>
           <t>なし</t>
         </is>
+      </c>
+      <c r="G6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -591,7 +594,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -601,7 +604,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12"/>
@@ -741,11 +744,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>錆びた鎧</t>
+          <t>木の鎧</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -759,14 +762,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>古びた靴</t>
+          <t>龍靴</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -1512,8 +1515,8 @@
   <cols>
     <col width="9" customWidth="1" style="2" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9" customWidth="1" style="2" min="3" max="16"/>
-    <col width="9" customWidth="1" style="2" min="17" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="3" max="18"/>
+    <col width="9" customWidth="1" style="2" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1729,8 +1732,8 @@
   <cols>
     <col width="9" customWidth="1" style="2" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9" customWidth="1" style="2" min="3" max="16"/>
-    <col width="9" customWidth="1" style="2" min="17" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="3" max="18"/>
+    <col width="9" customWidth="1" style="2" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1945,8 +1948,8 @@
   <cols>
     <col width="9" customWidth="1" style="2" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9" customWidth="1" style="2" min="3" max="19"/>
-    <col width="9" customWidth="1" style="2" min="20" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="3" max="21"/>
+    <col width="9" customWidth="1" style="2" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2172,8 +2175,8 @@
   <cols>
     <col width="8.75" customWidth="1" style="2" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="8.75" customWidth="1" style="2" min="3" max="11"/>
-    <col width="8.75" customWidth="1" style="2" min="12" max="16384"/>
+    <col width="8.75" customWidth="1" style="2" min="3" max="13"/>
+    <col width="8.75" customWidth="1" style="2" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2526,8 +2529,8 @@
     <col width="4.125" customWidth="1" style="2" min="28" max="30"/>
     <col width="8.75" customWidth="1" style="2" min="31" max="31"/>
     <col width="4.125" customWidth="1" style="2" min="32" max="34"/>
-    <col width="8.75" customWidth="1" style="2" min="35" max="43"/>
-    <col width="8.75" customWidth="1" style="2" min="44" max="16384"/>
+    <col width="8.75" customWidth="1" style="2" min="35" max="45"/>
+    <col width="8.75" customWidth="1" style="2" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3757,6 +3760,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="49"/>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
@@ -3881,7 +3885,7 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -4344,7 +4348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -4368,31 +4372,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>豚ロース</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>錆びた帽子</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>錆びた盾</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4755,6 +4759,466 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5511,7 +5975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D500"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
@@ -5598,6 +6062,215 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>prob</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>drop1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>スライムゼリー</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>drop2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>錆取り粉</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>drop3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>スライムの核</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>drop4</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>drop5</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>drop6</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D500"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <cols>
+    <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>lv</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>skill_qty</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>skill1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>skill2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>skill3</t>
+        </is>
+      </c>
+    </row>
     <row r="8"/>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5606,7 +6279,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -5616,7 +6289,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11"/>
@@ -5640,14 +6313,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>スライムゼリー</t>
+          <t>錆びた剣</t>
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.79</v>
+        <v>0.33</v>
       </c>
       <c r="D13" t="n">
-        <v>0.79</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14">
@@ -5658,14 +6331,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>錆取り粉</t>
+          <t>錆びた盾</t>
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="D14" t="n">
-        <v>0.99</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="15">
@@ -5676,14 +6349,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>スライムの核</t>
+          <t>錆びた帽子</t>
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.01</v>
+        <v>0.33</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="16">
@@ -5692,8 +6365,13 @@
           <t>drop4</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ゴブリンの核</t>
+        </is>
+      </c>
       <c r="C16" s="1" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -6209,219 +6887,5 @@
     <row r="500"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <cols>
-    <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>lv</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>hp</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>atk</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>skill_qty</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>skill1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>skill2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>skill3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>exp</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>money</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>prob</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>drop1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>錆びた剣</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>drop2</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>錆びた盾</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>drop3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>錆びた帽子</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>drop4</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ゴブリンの核</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>drop5</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>drop6</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/new_system/systems/base.xlsx
+++ b/new_system/systems/base.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G500"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C3" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D3" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12"/>
@@ -744,11 +744,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>木の鎧</t>
+          <t>錆びた鎧</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -762,14 +762,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>龍靴</t>
+          <t>古びた靴</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="D26" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -797,8 +797,6 @@
         </is>
       </c>
     </row>
-    <row r="29"/>
-    <row r="30"/>
     <row r="31">
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -806,475 +804,6 @@
         </is>
       </c>
     </row>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214"/>
-    <row r="215"/>
-    <row r="216"/>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
-    <row r="221"/>
-    <row r="222"/>
-    <row r="223"/>
-    <row r="224"/>
-    <row r="225"/>
-    <row r="226"/>
-    <row r="227"/>
-    <row r="228"/>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
-    <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261"/>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
-    <row r="265"/>
-    <row r="266"/>
-    <row r="267"/>
-    <row r="268"/>
-    <row r="269"/>
-    <row r="270"/>
-    <row r="271"/>
-    <row r="272"/>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275"/>
-    <row r="276"/>
-    <row r="277"/>
-    <row r="278"/>
-    <row r="279"/>
-    <row r="280"/>
-    <row r="281"/>
-    <row r="282"/>
-    <row r="283"/>
-    <row r="284"/>
-    <row r="285"/>
-    <row r="286"/>
-    <row r="287"/>
-    <row r="288"/>
-    <row r="289"/>
-    <row r="290"/>
-    <row r="291"/>
-    <row r="292"/>
-    <row r="293"/>
-    <row r="294"/>
-    <row r="295"/>
-    <row r="296"/>
-    <row r="297"/>
-    <row r="298"/>
-    <row r="299"/>
-    <row r="300"/>
-    <row r="301"/>
-    <row r="302"/>
-    <row r="303"/>
-    <row r="304"/>
-    <row r="305"/>
-    <row r="306"/>
-    <row r="307"/>
-    <row r="308"/>
-    <row r="309"/>
-    <row r="310"/>
-    <row r="311"/>
-    <row r="312"/>
-    <row r="313"/>
-    <row r="314"/>
-    <row r="315"/>
-    <row r="316"/>
-    <row r="317"/>
-    <row r="318"/>
-    <row r="319"/>
-    <row r="320"/>
-    <row r="321"/>
-    <row r="322"/>
-    <row r="323"/>
-    <row r="324"/>
-    <row r="325"/>
-    <row r="326"/>
-    <row r="327"/>
-    <row r="328"/>
-    <row r="329"/>
-    <row r="330"/>
-    <row r="331"/>
-    <row r="332"/>
-    <row r="333"/>
-    <row r="334"/>
-    <row r="335"/>
-    <row r="336"/>
-    <row r="337"/>
-    <row r="338"/>
-    <row r="339"/>
-    <row r="340"/>
-    <row r="341"/>
-    <row r="342"/>
-    <row r="343"/>
-    <row r="344"/>
-    <row r="345"/>
-    <row r="346"/>
-    <row r="347"/>
-    <row r="348"/>
-    <row r="349"/>
-    <row r="350"/>
-    <row r="351"/>
-    <row r="352"/>
-    <row r="353"/>
-    <row r="354"/>
-    <row r="355"/>
-    <row r="356"/>
-    <row r="357"/>
-    <row r="358"/>
-    <row r="359"/>
-    <row r="360"/>
-    <row r="361"/>
-    <row r="362"/>
-    <row r="363"/>
-    <row r="364"/>
-    <row r="365"/>
-    <row r="366"/>
-    <row r="367"/>
-    <row r="368"/>
-    <row r="369"/>
-    <row r="370"/>
-    <row r="371"/>
-    <row r="372"/>
-    <row r="373"/>
-    <row r="374"/>
-    <row r="375"/>
-    <row r="376"/>
-    <row r="377"/>
-    <row r="378"/>
-    <row r="379"/>
-    <row r="380"/>
-    <row r="381"/>
-    <row r="382"/>
-    <row r="383"/>
-    <row r="384"/>
-    <row r="385"/>
-    <row r="386"/>
-    <row r="387"/>
-    <row r="388"/>
-    <row r="389"/>
-    <row r="390"/>
-    <row r="391"/>
-    <row r="392"/>
-    <row r="393"/>
-    <row r="394"/>
-    <row r="395"/>
-    <row r="396"/>
-    <row r="397"/>
-    <row r="398"/>
-    <row r="399"/>
-    <row r="400"/>
-    <row r="401"/>
-    <row r="402"/>
-    <row r="403"/>
-    <row r="404"/>
-    <row r="405"/>
-    <row r="406"/>
-    <row r="407"/>
-    <row r="408"/>
-    <row r="409"/>
-    <row r="410"/>
-    <row r="411"/>
-    <row r="412"/>
-    <row r="413"/>
-    <row r="414"/>
-    <row r="415"/>
-    <row r="416"/>
-    <row r="417"/>
-    <row r="418"/>
-    <row r="419"/>
-    <row r="420"/>
-    <row r="421"/>
-    <row r="422"/>
-    <row r="423"/>
-    <row r="424"/>
-    <row r="425"/>
-    <row r="426"/>
-    <row r="427"/>
-    <row r="428"/>
-    <row r="429"/>
-    <row r="430"/>
-    <row r="431"/>
-    <row r="432"/>
-    <row r="433"/>
-    <row r="434"/>
-    <row r="435"/>
-    <row r="436"/>
-    <row r="437"/>
-    <row r="438"/>
-    <row r="439"/>
-    <row r="440"/>
-    <row r="441"/>
-    <row r="442"/>
-    <row r="443"/>
-    <row r="444"/>
-    <row r="445"/>
-    <row r="446"/>
-    <row r="447"/>
-    <row r="448"/>
-    <row r="449"/>
-    <row r="450"/>
-    <row r="451"/>
-    <row r="452"/>
-    <row r="453"/>
-    <row r="454"/>
-    <row r="455"/>
-    <row r="456"/>
-    <row r="457"/>
-    <row r="458"/>
-    <row r="459"/>
-    <row r="460"/>
-    <row r="461"/>
-    <row r="462"/>
-    <row r="463"/>
-    <row r="464"/>
-    <row r="465"/>
-    <row r="466"/>
-    <row r="467"/>
-    <row r="468"/>
-    <row r="469"/>
-    <row r="470"/>
-    <row r="471"/>
-    <row r="472"/>
-    <row r="473"/>
-    <row r="474"/>
-    <row r="475"/>
-    <row r="476"/>
-    <row r="477"/>
-    <row r="478"/>
-    <row r="479"/>
-    <row r="480"/>
-    <row r="481"/>
-    <row r="482"/>
-    <row r="483"/>
-    <row r="484"/>
-    <row r="485"/>
-    <row r="486"/>
-    <row r="487"/>
-    <row r="488"/>
-    <row r="489"/>
-    <row r="490"/>
-    <row r="491"/>
-    <row r="492"/>
-    <row r="493"/>
-    <row r="494"/>
-    <row r="495"/>
-    <row r="496"/>
-    <row r="497"/>
-    <row r="498"/>
-    <row r="499"/>
-    <row r="500"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2504,7 +2033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F66" sqref="F66"/>
@@ -3872,912 +3401,6 @@
         <v>0</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <cols>
-    <col width="9" customWidth="1" style="2" min="2" max="2"/>
-    <col width="14.125" customWidth="1" style="2" min="3" max="5"/>
-    <col width="9" customWidth="1" style="2" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>推奨lv</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>enemy1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>enemy2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>enemy3</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>アンロック</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>スライム</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>メタルスライム</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>草原</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ゴブリン</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>メタルスライム</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>森</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>森の奥</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>オーク</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>メタルスライム</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>コボルト</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>メタルブラザーズ</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>山</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>山頂</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ゴーレム</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>メタルブラザーズ</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>12</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>デーモン</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>メタルブラザーズ</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>奈落</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>14</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>オーガ</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>はぐれメタル</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>16</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>キマイラ</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>はぐれメタル</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>18</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ケルベロス</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>はぐれメタル</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>20</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ヒュドラ</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>キングメタル</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>22</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ミノタウロス</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>キングメタル</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>enemy1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>enemy2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>enemy3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>森の奥</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ゴブリンロード</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>山頂</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ドラゴン</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B500"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <cols>
-    <col width="13.375" customWidth="1" style="2" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>冒険の書</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>豚ロース</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>錆びた帽子</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>錆びた盾</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
     <row r="60"/>
     <row r="61"/>
     <row r="62"/>
@@ -5224,6 +3847,893 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <cols>
+    <col width="9" customWidth="1" style="2" min="2" max="2"/>
+    <col width="14.125" customWidth="1" style="2" min="3" max="5"/>
+    <col width="9" customWidth="1" style="2" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>推奨lv</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>enemy1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>enemy2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>enemy3</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>アンロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>スライム</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>メタルスライム</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>草原</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ゴブリン</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>メタルスライム</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>森</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>森の奥</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>オーク</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>メタルスライム</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>コボルト</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>メタルブラザーズ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>山</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>山頂</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ゴーレム</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>メタルブラザーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>デーモン</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>メタルブラザーズ</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>奈落</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>オーガ</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>はぐれメタル</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>キマイラ</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>はぐれメタル</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ケルベロス</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>はぐれメタル</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ヒュドラ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>キングメタル</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>22</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ミノタウロス</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>キングメタル</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>enemy1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>enemy2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>enemy3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>森の奥</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ゴブリンロード</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>山頂</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ドラゴン</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <cols>
+    <col width="13.375" customWidth="1" style="2" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>冒険の書</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>豚ロース</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>錆びた帽子</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>錆びた盾</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>スライムゼリー</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>錆びた剣</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>錆取り粉</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>豚バラ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>豚ヒレ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>古びた剣</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -6199,7 +5709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D500"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
@@ -6271,7 +5781,6 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
@@ -6292,7 +5801,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
@@ -6403,488 +5911,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214"/>
-    <row r="215"/>
-    <row r="216"/>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
-    <row r="221"/>
-    <row r="222"/>
-    <row r="223"/>
-    <row r="224"/>
-    <row r="225"/>
-    <row r="226"/>
-    <row r="227"/>
-    <row r="228"/>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
-    <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261"/>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
-    <row r="265"/>
-    <row r="266"/>
-    <row r="267"/>
-    <row r="268"/>
-    <row r="269"/>
-    <row r="270"/>
-    <row r="271"/>
-    <row r="272"/>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275"/>
-    <row r="276"/>
-    <row r="277"/>
-    <row r="278"/>
-    <row r="279"/>
-    <row r="280"/>
-    <row r="281"/>
-    <row r="282"/>
-    <row r="283"/>
-    <row r="284"/>
-    <row r="285"/>
-    <row r="286"/>
-    <row r="287"/>
-    <row r="288"/>
-    <row r="289"/>
-    <row r="290"/>
-    <row r="291"/>
-    <row r="292"/>
-    <row r="293"/>
-    <row r="294"/>
-    <row r="295"/>
-    <row r="296"/>
-    <row r="297"/>
-    <row r="298"/>
-    <row r="299"/>
-    <row r="300"/>
-    <row r="301"/>
-    <row r="302"/>
-    <row r="303"/>
-    <row r="304"/>
-    <row r="305"/>
-    <row r="306"/>
-    <row r="307"/>
-    <row r="308"/>
-    <row r="309"/>
-    <row r="310"/>
-    <row r="311"/>
-    <row r="312"/>
-    <row r="313"/>
-    <row r="314"/>
-    <row r="315"/>
-    <row r="316"/>
-    <row r="317"/>
-    <row r="318"/>
-    <row r="319"/>
-    <row r="320"/>
-    <row r="321"/>
-    <row r="322"/>
-    <row r="323"/>
-    <row r="324"/>
-    <row r="325"/>
-    <row r="326"/>
-    <row r="327"/>
-    <row r="328"/>
-    <row r="329"/>
-    <row r="330"/>
-    <row r="331"/>
-    <row r="332"/>
-    <row r="333"/>
-    <row r="334"/>
-    <row r="335"/>
-    <row r="336"/>
-    <row r="337"/>
-    <row r="338"/>
-    <row r="339"/>
-    <row r="340"/>
-    <row r="341"/>
-    <row r="342"/>
-    <row r="343"/>
-    <row r="344"/>
-    <row r="345"/>
-    <row r="346"/>
-    <row r="347"/>
-    <row r="348"/>
-    <row r="349"/>
-    <row r="350"/>
-    <row r="351"/>
-    <row r="352"/>
-    <row r="353"/>
-    <row r="354"/>
-    <row r="355"/>
-    <row r="356"/>
-    <row r="357"/>
-    <row r="358"/>
-    <row r="359"/>
-    <row r="360"/>
-    <row r="361"/>
-    <row r="362"/>
-    <row r="363"/>
-    <row r="364"/>
-    <row r="365"/>
-    <row r="366"/>
-    <row r="367"/>
-    <row r="368"/>
-    <row r="369"/>
-    <row r="370"/>
-    <row r="371"/>
-    <row r="372"/>
-    <row r="373"/>
-    <row r="374"/>
-    <row r="375"/>
-    <row r="376"/>
-    <row r="377"/>
-    <row r="378"/>
-    <row r="379"/>
-    <row r="380"/>
-    <row r="381"/>
-    <row r="382"/>
-    <row r="383"/>
-    <row r="384"/>
-    <row r="385"/>
-    <row r="386"/>
-    <row r="387"/>
-    <row r="388"/>
-    <row r="389"/>
-    <row r="390"/>
-    <row r="391"/>
-    <row r="392"/>
-    <row r="393"/>
-    <row r="394"/>
-    <row r="395"/>
-    <row r="396"/>
-    <row r="397"/>
-    <row r="398"/>
-    <row r="399"/>
-    <row r="400"/>
-    <row r="401"/>
-    <row r="402"/>
-    <row r="403"/>
-    <row r="404"/>
-    <row r="405"/>
-    <row r="406"/>
-    <row r="407"/>
-    <row r="408"/>
-    <row r="409"/>
-    <row r="410"/>
-    <row r="411"/>
-    <row r="412"/>
-    <row r="413"/>
-    <row r="414"/>
-    <row r="415"/>
-    <row r="416"/>
-    <row r="417"/>
-    <row r="418"/>
-    <row r="419"/>
-    <row r="420"/>
-    <row r="421"/>
-    <row r="422"/>
-    <row r="423"/>
-    <row r="424"/>
-    <row r="425"/>
-    <row r="426"/>
-    <row r="427"/>
-    <row r="428"/>
-    <row r="429"/>
-    <row r="430"/>
-    <row r="431"/>
-    <row r="432"/>
-    <row r="433"/>
-    <row r="434"/>
-    <row r="435"/>
-    <row r="436"/>
-    <row r="437"/>
-    <row r="438"/>
-    <row r="439"/>
-    <row r="440"/>
-    <row r="441"/>
-    <row r="442"/>
-    <row r="443"/>
-    <row r="444"/>
-    <row r="445"/>
-    <row r="446"/>
-    <row r="447"/>
-    <row r="448"/>
-    <row r="449"/>
-    <row r="450"/>
-    <row r="451"/>
-    <row r="452"/>
-    <row r="453"/>
-    <row r="454"/>
-    <row r="455"/>
-    <row r="456"/>
-    <row r="457"/>
-    <row r="458"/>
-    <row r="459"/>
-    <row r="460"/>
-    <row r="461"/>
-    <row r="462"/>
-    <row r="463"/>
-    <row r="464"/>
-    <row r="465"/>
-    <row r="466"/>
-    <row r="467"/>
-    <row r="468"/>
-    <row r="469"/>
-    <row r="470"/>
-    <row r="471"/>
-    <row r="472"/>
-    <row r="473"/>
-    <row r="474"/>
-    <row r="475"/>
-    <row r="476"/>
-    <row r="477"/>
-    <row r="478"/>
-    <row r="479"/>
-    <row r="480"/>
-    <row r="481"/>
-    <row r="482"/>
-    <row r="483"/>
-    <row r="484"/>
-    <row r="485"/>
-    <row r="486"/>
-    <row r="487"/>
-    <row r="488"/>
-    <row r="489"/>
-    <row r="490"/>
-    <row r="491"/>
-    <row r="492"/>
-    <row r="493"/>
-    <row r="494"/>
-    <row r="495"/>
-    <row r="496"/>
-    <row r="497"/>
-    <row r="498"/>
-    <row r="499"/>
-    <row r="500"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/new_system/systems/base.xlsx
+++ b/new_system/systems/base.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="1" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーステータス" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="ドラゴン" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -443,16 +443,16 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col width="8.75" customWidth="1" style="2" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="8.75" customWidth="1" style="2" min="3" max="13"/>
-    <col width="8.75" customWidth="1" style="2" min="14" max="16384"/>
+    <col width="8.75" customWidth="1" style="2" min="3" max="14"/>
+    <col width="8.75" customWidth="1" style="2" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>690</v>
+        <v>810</v>
       </c>
       <c r="C3" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="D3" t="n">
         <v>390</v>
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -708,14 +708,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>鋼鉄の剣</t>
+          <t>木の剣</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -1044,8 +1044,8 @@
   <cols>
     <col width="9" customWidth="1" style="2" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9" customWidth="1" style="2" min="3" max="18"/>
-    <col width="9" customWidth="1" style="2" min="19" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="3" max="19"/>
+    <col width="9" customWidth="1" style="2" min="20" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1254,15 +1254,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="2" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9" customWidth="1" style="2" min="3" max="18"/>
-    <col width="9" customWidth="1" style="2" min="19" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="3" max="19"/>
+    <col width="9" customWidth="1" style="2" min="20" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>400</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="4">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1458,6 +1458,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -1469,16 +1470,16 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="2" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="9" customWidth="1" style="2" min="3" max="21"/>
-    <col width="9" customWidth="1" style="2" min="22" max="16384"/>
+    <col width="9" customWidth="1" style="2" min="3" max="22"/>
+    <col width="9" customWidth="1" style="2" min="23" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1508,7 +1509,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1300</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="4">
@@ -1542,6 +1543,7 @@
         </is>
       </c>
     </row>
+    <row r="8"/>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
@@ -1549,7 +1551,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="10">
@@ -1559,9 +1561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2000</v>
-      </c>
-    </row>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11"/>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
@@ -1704,8 +1707,8 @@
   <cols>
     <col width="8.75" customWidth="1" style="2" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
-    <col width="8.75" customWidth="1" style="2" min="3" max="13"/>
-    <col width="8.75" customWidth="1" style="2" min="14" max="16384"/>
+    <col width="8.75" customWidth="1" style="2" min="3" max="14"/>
+    <col width="8.75" customWidth="1" style="2" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2033,7 +2036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G500"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F66" sqref="F66"/>
@@ -2058,8 +2061,8 @@
     <col width="4.125" customWidth="1" style="2" min="28" max="30"/>
     <col width="8.75" customWidth="1" style="2" min="31" max="31"/>
     <col width="4.125" customWidth="1" style="2" min="32" max="34"/>
-    <col width="8.75" customWidth="1" style="2" min="35" max="45"/>
-    <col width="8.75" customWidth="1" style="2" min="46" max="16384"/>
+    <col width="8.75" customWidth="1" style="2" min="35" max="46"/>
+    <col width="8.75" customWidth="1" style="2" min="47" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3401,6 +3404,912 @@
         <v>0</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <cols>
+    <col width="9" customWidth="1" style="2" min="2" max="2"/>
+    <col width="14.125" customWidth="1" style="2" min="3" max="5"/>
+    <col width="9" customWidth="1" style="2" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>推奨lv</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>enemy1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>enemy2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>enemy3</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>アンロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>スライム</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>メタルスライム</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>草原</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ゴブリン</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>メタルスライム</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>森</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>森の奥</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>オーク</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>メタルスライム</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>コボルト</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>メタルブラザーズ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>山</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>山頂</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ゴーレム</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>メタルブラザーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>デーモン</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>メタルブラザーズ</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>奈落</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>オーガ</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>はぐれメタル</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>キマイラ</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>はぐれメタル</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ケルベロス</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>はぐれメタル</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ヒュドラ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>キングメタル</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>22</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ミノタウロス</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>キングメタル</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>enemy1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>enemy2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>enemy3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>森の奥</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ゴブリンロード</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>山頂</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ドラゴン</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B500"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <cols>
+    <col width="13.375" customWidth="1" style="2" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>冒険の書</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>豚ロース</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>錆びた帽子</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>錆びた盾</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>スライムゼリー</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>錆びた剣</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>錆取り粉</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>豚バラ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>豚ヒレ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>古びた剣</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>古びた帽子</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ドラゴンの鱗</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
     <row r="60"/>
     <row r="61"/>
     <row r="62"/>
@@ -3847,893 +4756,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <cols>
-    <col width="9" customWidth="1" style="2" min="2" max="2"/>
-    <col width="14.125" customWidth="1" style="2" min="3" max="5"/>
-    <col width="9" customWidth="1" style="2" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>推奨lv</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>enemy1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>enemy2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>enemy3</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>アンロック</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>スライム</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>メタルスライム</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>草原</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ゴブリン</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>メタルスライム</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>森</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>森の奥</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>オーク</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>メタルスライム</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>コボルト</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>メタルブラザーズ</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>山</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>山頂</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ゴーレム</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>メタルブラザーズ</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>12</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>デーモン</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>メタルブラザーズ</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>奈落</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>14</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>オーガ</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>はぐれメタル</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>16</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>キマイラ</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>はぐれメタル</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>18</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ケルベロス</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>はぐれメタル</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>20</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ヒュドラ</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>キングメタル</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>22</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ミノタウロス</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>キングメタル</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>enemy1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>enemy2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>enemy3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>森の奥</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ゴブリンロード</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>山頂</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ドラゴン</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <cols>
-    <col width="13.375" customWidth="1" style="2" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>冒険の書</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>豚ロース</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>錆びた帽子</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>錆びた盾</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>スライムゼリー</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>錆びた剣</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>錆取り粉</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>豚バラ</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>豚ヒレ</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>古びた剣</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/new_system/systems/base.xlsx
+++ b/new_system/systems/base.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolke\git1009\new_system\systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4327FB-A570-42D2-A62D-BF40E9429B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CA1390-F4B0-4F6E-ACA6-529BE1B9CBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーステータス" sheetId="1" r:id="rId1"/>
-    <sheet name="クエスト" sheetId="14" r:id="rId2"/>
-    <sheet name="ガチャ" sheetId="15" r:id="rId3"/>
-    <sheet name="装備" sheetId="2" r:id="rId4"/>
-    <sheet name="通常ダンジョン" sheetId="3" r:id="rId5"/>
-    <sheet name="ボスダンジョン" sheetId="4" r:id="rId6"/>
-    <sheet name="道具箱" sheetId="5" r:id="rId7"/>
-    <sheet name="level_table" sheetId="6" r:id="rId8"/>
-    <sheet name="スライム" sheetId="7" r:id="rId9"/>
-    <sheet name="ゴブリン" sheetId="8" r:id="rId10"/>
-    <sheet name="オーク" sheetId="9" r:id="rId11"/>
-    <sheet name="コボルト" sheetId="10" r:id="rId12"/>
-    <sheet name="ゴブリンロード" sheetId="11" r:id="rId13"/>
-    <sheet name="ドラゴン" sheetId="12" r:id="rId14"/>
-    <sheet name="魔王" sheetId="13" r:id="rId15"/>
+    <sheet name="クエスト" sheetId="2" r:id="rId2"/>
+    <sheet name="ガチャ" sheetId="3" r:id="rId3"/>
+    <sheet name="装備" sheetId="4" r:id="rId4"/>
+    <sheet name="通常ダンジョン" sheetId="5" r:id="rId5"/>
+    <sheet name="ボスダンジョン" sheetId="6" r:id="rId6"/>
+    <sheet name="道具箱" sheetId="7" r:id="rId7"/>
+    <sheet name="level_table" sheetId="8" r:id="rId8"/>
+    <sheet name="スライム" sheetId="9" r:id="rId9"/>
+    <sheet name="ゴブリン" sheetId="10" r:id="rId10"/>
+    <sheet name="オーク" sheetId="11" r:id="rId11"/>
+    <sheet name="コボルト" sheetId="12" r:id="rId12"/>
+    <sheet name="ゴブリンロード" sheetId="13" r:id="rId13"/>
+    <sheet name="ドラゴン" sheetId="14" r:id="rId14"/>
+    <sheet name="魔王" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="193">
   <si>
     <t>total</t>
   </si>
@@ -125,138 +125,213 @@
     <t>左手</t>
   </si>
   <si>
+    <t>鉄の盾</t>
+  </si>
+  <si>
+    <t>鎧</t>
+  </si>
+  <si>
+    <t>錆びた鎧</t>
+  </si>
+  <si>
+    <t>靴</t>
+  </si>
+  <si>
+    <t>龍靴</t>
+  </si>
+  <si>
+    <t>装飾品</t>
+  </si>
+  <si>
+    <t>パワーリング</t>
+  </si>
+  <si>
+    <t>[↑連動なし]</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>rarity</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>prob</t>
+  </si>
+  <si>
+    <t>sum_prob</t>
+  </si>
+  <si>
+    <t>ノーマルガチャ</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>回復薬</t>
+  </si>
+  <si>
+    <t>ハイポーション</t>
+  </si>
+  <si>
+    <t>妨害の笛</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>item5</t>
+  </si>
+  <si>
+    <t>鋼鉄の盾</t>
+  </si>
+  <si>
+    <t>item6</t>
+  </si>
+  <si>
+    <t>鋼鉄の鎧</t>
+  </si>
+  <si>
+    <t>item7</t>
+  </si>
+  <si>
+    <t>鋼鉄の靴</t>
+  </si>
+  <si>
+    <t>item8</t>
+  </si>
+  <si>
+    <t>スーパーガチャ</t>
+  </si>
+  <si>
+    <t>エリクサー</t>
+  </si>
+  <si>
+    <t>探知の書</t>
+  </si>
+  <si>
+    <t>結界の書</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>【期間限定】ハロウィンガチャ</t>
+  </si>
+  <si>
+    <t>ハロウィンステッキ</t>
+  </si>
+  <si>
+    <t>ハロウィンハット</t>
+  </si>
+  <si>
+    <t>ハロウィンシールド</t>
+  </si>
+  <si>
+    <t>ハロウィンシューズ</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>剣</t>
+  </si>
+  <si>
+    <t>木の剣</t>
+  </si>
+  <si>
+    <t>錆びた剣</t>
+  </si>
+  <si>
+    <t>銅の剣</t>
+  </si>
+  <si>
+    <t>古びた剣</t>
+  </si>
+  <si>
+    <t>鉄の剣</t>
+  </si>
+  <si>
+    <t>龍剣</t>
+  </si>
+  <si>
+    <t>魔剣</t>
+  </si>
+  <si>
+    <t>聖剣</t>
+  </si>
+  <si>
+    <t>神剣</t>
+  </si>
+  <si>
+    <t>盾</t>
+  </si>
+  <si>
+    <t>木の盾</t>
+  </si>
+  <si>
+    <t>錆びた盾</t>
+  </si>
+  <si>
     <t>銅の盾</t>
   </si>
   <si>
-    <t>鎧</t>
+    <t>古びた盾</t>
+  </si>
+  <si>
+    <t>龍盾</t>
+  </si>
+  <si>
+    <t>魔盾</t>
+  </si>
+  <si>
+    <t>聖盾</t>
+  </si>
+  <si>
+    <t>神盾</t>
   </si>
   <si>
     <t>木の鎧</t>
   </si>
   <si>
-    <t>靴</t>
+    <t>銅の鎧</t>
+  </si>
+  <si>
+    <t>古びた鎧</t>
+  </si>
+  <si>
+    <t>鉄の鎧</t>
+  </si>
+  <si>
+    <t>龍鎧</t>
+  </si>
+  <si>
+    <t>魔鎧</t>
+  </si>
+  <si>
+    <t>聖鎧</t>
+  </si>
+  <si>
+    <t>神鎧</t>
+  </si>
+  <si>
+    <t>木の靴</t>
+  </si>
+  <si>
+    <t>錆びた靴</t>
+  </si>
+  <si>
+    <t>銅の靴</t>
   </si>
   <si>
     <t>古びた靴</t>
   </si>
   <si>
-    <t>装飾品</t>
-  </si>
-  <si>
-    <t>パワーリング</t>
-  </si>
-  <si>
-    <t>[↑連動なし]</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>剣</t>
-  </si>
-  <si>
-    <t>木の剣</t>
-  </si>
-  <si>
-    <t>錆びた剣</t>
-  </si>
-  <si>
-    <t>銅の剣</t>
-  </si>
-  <si>
-    <t>古びた剣</t>
-  </si>
-  <si>
-    <t>鉄の剣</t>
-  </si>
-  <si>
-    <t>龍剣</t>
-  </si>
-  <si>
-    <t>魔剣</t>
-  </si>
-  <si>
-    <t>聖剣</t>
-  </si>
-  <si>
-    <t>神剣</t>
-  </si>
-  <si>
-    <t>盾</t>
-  </si>
-  <si>
-    <t>木の盾</t>
-  </si>
-  <si>
-    <t>錆びた盾</t>
-  </si>
-  <si>
-    <t>古びた盾</t>
-  </si>
-  <si>
-    <t>鉄の盾</t>
-  </si>
-  <si>
-    <t>鋼鉄の盾</t>
-  </si>
-  <si>
-    <t>龍盾</t>
-  </si>
-  <si>
-    <t>魔盾</t>
-  </si>
-  <si>
-    <t>聖盾</t>
-  </si>
-  <si>
-    <t>神盾</t>
-  </si>
-  <si>
-    <t>錆びた鎧</t>
-  </si>
-  <si>
-    <t>銅の鎧</t>
-  </si>
-  <si>
-    <t>古びた鎧</t>
-  </si>
-  <si>
-    <t>鉄の鎧</t>
-  </si>
-  <si>
-    <t>鋼鉄の鎧</t>
-  </si>
-  <si>
-    <t>龍鎧</t>
-  </si>
-  <si>
-    <t>魔鎧</t>
-  </si>
-  <si>
-    <t>聖鎧</t>
-  </si>
-  <si>
-    <t>神鎧</t>
-  </si>
-  <si>
-    <t>木の靴</t>
-  </si>
-  <si>
-    <t>錆びた靴</t>
-  </si>
-  <si>
-    <t>銅の靴</t>
-  </si>
-  <si>
     <t>鉄の靴</t>
   </si>
   <si>
-    <t>鋼鉄の靴</t>
-  </si>
-  <si>
-    <t>龍靴</t>
-  </si>
-  <si>
     <t>魔靴</t>
   </si>
   <si>
@@ -386,6 +461,9 @@
     <t>魔王の証</t>
   </si>
   <si>
+    <t>ドラゴンの牙</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
@@ -395,9 +473,6 @@
     <t>atk上昇量</t>
   </si>
   <si>
-    <t>prob</t>
-  </si>
-  <si>
     <t>drop1</t>
   </si>
   <si>
@@ -446,9 +521,6 @@
     <t>ドラゴンの肉</t>
   </si>
   <si>
-    <t>ドラゴンの牙</t>
-  </si>
-  <si>
     <t>ドラゴンの瞳</t>
   </si>
   <si>
@@ -461,178 +533,41 @@
     <t>魔王の核</t>
   </si>
   <si>
-    <t>ノーマルガチャ</t>
+    <t>カーボンソード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スーパーガチャ</t>
+    <t>カーボンシールド</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【期間限定】ハロウィンガチャ</t>
-    <rPh sb="1" eb="5">
-      <t>キカンゲンテイ</t>
+    <t>カーボンアーマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーボンブーツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンプキンポーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンプキンパウダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンプキンボム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔女のお菓子</t>
+    <rPh sb="0" eb="2">
+      <t>マジョ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>contents</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>prob</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回復薬</t>
-    <rPh sb="0" eb="3">
-      <t>カイフクヤク</t>
+    <rPh sb="4" eb="6">
+      <t>カシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エリクサー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>妨害の笛</t>
-    <rPh sb="0" eb="2">
-      <t>ボウガイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>フエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鋼鉄の剣</t>
-    <rPh sb="0" eb="2">
-      <t>コウテツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鋼鉄の鎧</t>
-    <rPh sb="0" eb="2">
-      <t>コウテツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨロイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鋼鉄の盾</t>
-    <rPh sb="0" eb="2">
-      <t>コウテツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鋼鉄の靴</t>
-    <rPh sb="0" eb="2">
-      <t>コウテツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>クツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パワーリング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハイポーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーボンの剣</t>
-    <rPh sb="5" eb="6">
-      <t>ケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーボンの盾</t>
-    <rPh sb="5" eb="6">
-      <t>タテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーボンの鎧</t>
-    <rPh sb="5" eb="6">
-      <t>ヨロイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーボンの靴</t>
-    <rPh sb="5" eb="6">
-      <t>クツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>結界の書</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>探知の書</t>
-    <rPh sb="0" eb="2">
-      <t>タンチ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハロウィンハット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハロウィンステッキ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハロウィンシューズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カボチャポーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カボチャ爆弾</t>
-    <rPh sb="4" eb="6">
-      <t>バクダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハロウィンシールド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハロウィンリング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーボンリング</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -645,13 +580,158 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>悪戯の書</t>
+    <rPh sb="0" eb="2">
+      <t>イタズラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駄菓子</t>
+    <rPh sb="0" eb="3">
+      <t>ダガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item9</t>
+  </si>
+  <si>
+    <t>item10</t>
+  </si>
+  <si>
+    <t>item11</t>
+  </si>
+  <si>
+    <t>item12</t>
+  </si>
+  <si>
+    <t>水の石</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷の石</t>
+    <rPh sb="0" eb="1">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賢者の石</t>
+    <rPh sb="0" eb="2">
+      <t>ケンジャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item13</t>
+  </si>
+  <si>
+    <t>item14</t>
+  </si>
+  <si>
+    <t>Uncommon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Legend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の石</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闇の石</t>
+    <rPh sb="0" eb="1">
+      <t>ヤミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水の魔石</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の魔石</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闇の魔石</t>
+    <rPh sb="0" eb="1">
+      <t>ヤミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷の魔石</t>
+    <rPh sb="0" eb="1">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレメンタルリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダークリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -716,16 +796,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -1009,16 +1092,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="8.75" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.75" style="2"/>
+    <col min="3" max="18" width="8.75" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1057,13 +1140,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>790</v>
+        <v>1025</v>
       </c>
       <c r="C3">
         <v>500</v>
       </c>
       <c r="D3">
-        <v>290</v>
+        <v>525</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1074,13 +1157,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C4">
         <v>110</v>
       </c>
       <c r="D4">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1227,7 +1310,7 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1241,7 +1324,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1255,10 +1338,10 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1291,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1371,15 +1454,15 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1">
         <v>0.33</v>
@@ -1390,10 +1473,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1">
         <v>0.33</v>
@@ -1404,10 +1487,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1">
         <v>0.33</v>
@@ -1418,10 +1501,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C16" s="1">
         <v>0.01</v>
@@ -1432,7 +1515,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1443,7 +1526,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1459,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1508,7 +1591,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1542,15 +1625,15 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="C13" s="1">
         <v>0.56999999999999995</v>
@@ -1561,10 +1644,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1">
         <v>0.28000000000000003</v>
@@ -1575,10 +1658,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C15" s="1">
         <v>0.14000000000000001</v>
@@ -1589,10 +1672,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="C16" s="1">
         <v>0.01</v>
@@ -1603,7 +1686,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1614,7 +1697,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1630,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1641,8 +1724,8 @@
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="21" width="9" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="2"/>
+    <col min="3" max="23" width="9" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1713,15 +1796,15 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C13" s="1">
         <v>0.56999999999999995</v>
@@ -1732,10 +1815,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C14" s="1">
         <v>0.28000000000000003</v>
@@ -1746,10 +1829,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1">
         <v>0.14000000000000001</v>
@@ -1760,10 +1843,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C16" s="1">
         <v>0.01</v>
@@ -1774,7 +1857,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1785,7 +1868,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1802,7 +1885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1813,8 +1896,8 @@
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="21" width="9" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="2"/>
+    <col min="3" max="23" width="9" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1885,15 +1968,15 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1">
         <v>0.33</v>
@@ -1904,10 +1987,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1">
         <v>0.33</v>
@@ -1918,10 +2001,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1">
         <v>0.33</v>
@@ -1932,10 +2015,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C16" s="1">
         <v>0.01</v>
@@ -1946,7 +2029,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1957,7 +2040,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1974,7 +2057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1985,8 +2068,8 @@
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="24" width="9" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="2"/>
+    <col min="3" max="26" width="9" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2057,15 +2140,15 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C13" s="1">
         <v>0.5</v>
@@ -2076,10 +2159,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C14" s="1">
         <v>0.25</v>
@@ -2090,10 +2173,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C15" s="1">
         <v>0.1</v>
@@ -2104,10 +2187,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1">
         <v>0.1</v>
@@ -2118,10 +2201,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C17" s="1">
         <v>0.04</v>
@@ -2132,10 +2215,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1">
         <v>0.01</v>
@@ -2152,7 +2235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2163,8 +2246,8 @@
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="24" width="9" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="2"/>
+    <col min="3" max="26" width="9" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2235,15 +2318,15 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C13" s="1">
         <v>0.99</v>
@@ -2254,10 +2337,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C14" s="1">
         <v>0.01</v>
@@ -2268,7 +2351,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -2279,7 +2362,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -2290,7 +2373,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -2301,7 +2384,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -2318,7 +2401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615E59BB-B0E1-4D9C-97A3-30FB3B0699ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2333,337 +2416,789 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C3C4CF-8A86-49FC-89F1-8C8A6A27EF47}">
-  <dimension ref="A3:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="9" style="6"/>
+    <col min="1" max="1" width="29.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="5">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G4" s="7">
         <v>0.2</v>
       </c>
-      <c r="D5" s="6">
-        <f>C5+D4</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="5">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="5">
         <v>0.15</v>
       </c>
-      <c r="D6" s="6">
-        <f t="shared" ref="D6:D23" si="0">C6+D5</f>
+      <c r="G5" s="7">
+        <f>G4+F5</f>
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="5">
+    <row r="6" spans="1:7">
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="5">
         <v>0.15</v>
       </c>
-      <c r="D7" s="6">
+      <c r="G6" s="7">
+        <f t="shared" ref="G6:G14" si="0">G5+F6</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1">
+      <c r="B9" s="6"/>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.65000000000000013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1">
+      <c r="B10" s="6"/>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.76000000000000023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.82000000000000028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.88000000000000034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.94000000000000039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" ref="G12:G15" si="1">G14+F15</f>
+        <v>1.0000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="6">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1">
+      <c r="B19" s="6"/>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="5">
         <v>0.1</v>
       </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="G19" s="7">
+        <f t="shared" ref="G19:G30" si="2">G18+F19</f>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="5">
         <v>0.1</v>
       </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1">
-      <c r="B10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="G20" s="7">
+        <f t="shared" si="2"/>
+        <v>0.41000000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1">
+      <c r="B21" s="6"/>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="5">
         <v>0.1</v>
       </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.79999999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="G21" s="7">
+        <f t="shared" si="2"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1">
+      <c r="B22" s="6"/>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="5">
         <v>0.1</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1">
-      <c r="B12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="G22" s="7">
+        <f t="shared" si="2"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1">
+      <c r="B23" s="6"/>
+      <c r="C23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="5">
         <v>0.1</v>
       </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="2" customFormat="1">
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="G23" s="7">
+        <f t="shared" si="2"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1">
+      <c r="B24" s="6"/>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="2"/>
+        <v>0.80999999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1">
+      <c r="B25" s="6"/>
+      <c r="C25" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="2"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="C26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="2"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="2"/>
+        <v>0.94000000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="2"/>
+        <v>0.97000000000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="6">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="5">
         <v>0.15</v>
       </c>
-      <c r="D17" s="6">
-        <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1">
-      <c r="B18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="G33" s="7">
         <v>0.15</v>
       </c>
-      <c r="D18" s="6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D19" s="6">
-        <f>C19+D18</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="6">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" si="0"/>
-        <v>0.79999999999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1">
-      <c r="B23" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="6">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="2" customFormat="1">
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="2" customFormat="1">
-      <c r="B27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D27" s="6">
-        <f>C27+D25</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="2" customFormat="1">
-      <c r="B28" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="5">
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="5">
         <v>0.15</v>
       </c>
-      <c r="D28" s="6">
-        <f>C28+D27</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="G34" s="7">
+        <f>G33+F34</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="5">
         <v>0.15</v>
       </c>
-      <c r="D29" s="6">
-        <f>C29+D28</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D30" s="6">
-        <f>C30+D29</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D31" s="6">
-        <f>C31+D30</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D32" s="6">
-        <f>C32+D31</f>
-        <v>0.79999999999999993</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D33" s="6">
-        <f>C33+D32</f>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
-        <v>164</v>
-      </c>
-      <c r="C34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D34" s="6">
-        <f>C34+D33</f>
-        <v>0.99999999999999989</v>
+      <c r="G35" s="7">
+        <f t="shared" ref="G35:G44" si="3">G34+F35</f>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="3"/>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="C37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="3"/>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1">
+      <c r="B38" s="6"/>
+      <c r="C38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="3"/>
+        <v>0.80999999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="2" customFormat="1">
+      <c r="B39" s="6"/>
+      <c r="C39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="C40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="3"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="C41" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="3"/>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="C42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="3"/>
+        <v>0.94000000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="C43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="3"/>
+        <v>0.97000000000000008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="C44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" t="s">
+        <v>192</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +3208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2699,8 +3234,8 @@
     <col min="28" max="30" width="4.125" style="2" customWidth="1"/>
     <col min="31" max="31" width="8.75" style="2" customWidth="1"/>
     <col min="32" max="34" width="4.125" style="2" customWidth="1"/>
-    <col min="35" max="48" width="8.75" style="2" customWidth="1"/>
-    <col min="49" max="16384" width="8.75" style="2"/>
+    <col min="35" max="50" width="8.75" style="2" customWidth="1"/>
+    <col min="51" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2720,12 +3255,12 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="C2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2745,7 +3280,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2768,7 +3303,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2791,7 +3326,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2814,7 +3349,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2837,7 +3372,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2883,7 +3418,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2906,7 +3441,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2929,7 +3464,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2952,7 +3487,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2975,12 +3510,12 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>25</v>
@@ -3000,7 +3535,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3023,7 +3558,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3046,7 +3581,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3069,7 +3604,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3092,7 +3627,7 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3115,7 +3650,7 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3138,7 +3673,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3161,7 +3696,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3184,7 +3719,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3207,7 +3742,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3230,7 +3765,7 @@
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3255,7 +3790,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3278,7 +3813,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3301,7 +3836,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3324,7 +3859,7 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3347,7 +3882,7 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3370,7 +3905,7 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3393,7 +3928,7 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3416,7 +3951,7 @@
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3439,7 +3974,7 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3462,7 +3997,7 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3485,7 +4020,7 @@
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3510,7 +4045,7 @@
         <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3533,7 +4068,7 @@
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3556,7 +4091,7 @@
         <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3579,7 +4114,7 @@
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3602,7 +4137,7 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3625,7 +4160,7 @@
         <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3648,7 +4183,7 @@
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3671,7 +4206,7 @@
         <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3694,7 +4229,7 @@
         <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3717,7 +4252,7 @@
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3828,7 +4363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3844,25 +4379,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3881,13 +4416,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3898,16 +4433,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3918,10 +4453,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3932,16 +4467,16 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3952,10 +4487,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3966,13 +4501,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3983,10 +4518,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3997,10 +4532,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4011,10 +4546,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4025,10 +4560,10 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4039,10 +4574,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4124,7 +4659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4135,19 +4670,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4160,10 +4695,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4171,10 +4706,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4182,10 +4717,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4205,7 +4740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4219,7 +4754,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -4227,26 +4762,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4259,7 +4794,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -4267,7 +4802,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -4275,7 +4810,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4283,7 +4818,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4291,7 +4826,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -4299,7 +4834,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -4307,7 +4842,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4315,23 +4850,23 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4339,7 +4874,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4347,7 +4882,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4355,7 +4890,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4363,7 +4898,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4371,7 +4906,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4379,7 +4914,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4387,7 +4922,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4395,7 +4930,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4403,7 +4938,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4411,7 +4946,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4419,7 +4954,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4427,7 +4962,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4435,7 +4970,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4443,7 +4978,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4451,7 +4986,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4459,7 +4994,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4467,7 +5002,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4475,7 +5010,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4483,7 +5018,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4491,7 +5026,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4499,7 +5034,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4507,7 +5042,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4515,7 +5050,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4523,7 +5058,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4531,7 +5066,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4544,7 +5079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4567,10 +5102,10 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5274,11 +5809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A13" sqref="A13:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5363,12 +5898,12 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -5382,10 +5917,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C14" s="1">
         <v>0.2</v>
@@ -5396,10 +5931,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C15" s="1">
         <v>0.01</v>
@@ -5410,7 +5945,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -5421,7 +5956,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -5432,7 +5967,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>

--- a/new_system/systems/base.xlsx
+++ b/new_system/systems/base.xlsx
@@ -505,7 +505,7 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col width="8.75" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -909,7 +909,7 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="6"/>
     <col width="9" customWidth="1" style="1" min="7" max="16384"/>
@@ -931,7 +931,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="25.5" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="5.75" customWidth="1" style="1" min="2" max="4"/>
@@ -1369,7 +1369,7 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="6"/>
     <col width="9" customWidth="1" style="1" min="7" max="16384"/>
@@ -2846,7 +2846,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -2930,7 +2930,6 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
@@ -2951,7 +2950,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
@@ -3075,7 +3073,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -3144,7 +3142,6 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
@@ -3165,7 +3162,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
@@ -3293,7 +3289,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -3510,7 +3506,7 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -3727,7 +3723,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -3944,7 +3940,7 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -4171,7 +4167,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
@@ -4378,7 +4374,7 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="6"/>
     <col width="9" customWidth="1" style="1" min="7" max="16384"/>
@@ -4616,13 +4612,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:G58"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="29.625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="4.125" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
@@ -4635,6 +4631,8 @@
     <col width="9" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
@@ -5048,6 +5046,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
@@ -5536,6 +5535,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="41"/>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="13" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
     <col width="21.375" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
@@ -8335,7 +8335,7 @@
       <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col width="3.25" customWidth="1" style="1" min="1" max="1"/>
     <col width="8.75" customWidth="1" style="1" min="2" max="2"/>
@@ -9362,7 +9362,7 @@
         </is>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>230</v>
@@ -11013,13 +11013,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV913"/>
+  <dimension ref="A1:AA913"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col width="4.5" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="8.75" customWidth="1" style="1" min="2" max="2"/>
@@ -11448,10 +11448,27 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>左手</t>
+        </is>
+      </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
+          <t>ハロウィンシールド</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>230</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
       </c>
       <c r="Y10" s="3" t="n"/>
       <c r="Z10" s="3" t="n"/>
@@ -20529,7 +20546,7 @@
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="2"/>
     <col width="14.125" customWidth="1" style="1" min="3" max="3"/>
@@ -20812,7 +20829,7 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="6"/>
     <col width="9" customWidth="1" style="1" min="7" max="16384"/>
@@ -20916,13 +20933,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="13.375" customWidth="1" style="1" min="1" max="1"/>
     <col width="9" customWidth="1" style="1" min="2" max="7"/>
@@ -21022,11 +21039,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>パンプキンパウダー</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -21329,6 +21346,466 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/new_system/systems/base.xlsx
+++ b/new_system/systems/base.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーステータス" sheetId="1" state="visible" r:id="rId1"/>
@@ -501,7 +501,7 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -509,8 +509,8 @@
   <cols>
     <col width="8.75" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="8.75" customWidth="1" style="1" min="3" max="45"/>
-    <col width="8.75" customWidth="1" style="1" min="46" max="16384"/>
+    <col width="8.75" customWidth="1" style="1" min="3" max="46"/>
+    <col width="8.75" customWidth="1" style="1" min="47" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>1284</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -911,8 +911,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="6"/>
-    <col width="9" customWidth="1" style="1" min="7" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="1" max="7"/>
+    <col width="9" customWidth="1" style="1" min="8" max="16384"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -946,8 +946,8 @@
     <col width="11.125" bestFit="1" customWidth="1" style="1" min="20" max="20"/>
     <col width="11.125" customWidth="1" style="1" min="21" max="21"/>
     <col width="11.125" bestFit="1" customWidth="1" style="1" min="22" max="22"/>
-    <col width="9" customWidth="1" style="1" min="23" max="27"/>
-    <col width="9" customWidth="1" style="1" min="28" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="23" max="28"/>
+    <col width="9" customWidth="1" style="1" min="29" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1371,8 +1371,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="6"/>
-    <col width="9" customWidth="1" style="1" min="7" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="1" max="7"/>
+    <col width="9" customWidth="1" style="1" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2850,8 +2850,8 @@
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="8"/>
-    <col width="9" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="9"/>
+    <col width="9" customWidth="1" style="1" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3077,8 +3077,8 @@
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="8"/>
-    <col width="9" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="9"/>
+    <col width="9" customWidth="1" style="1" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3142,6 +3142,7 @@
         </is>
       </c>
     </row>
+    <row r="8"/>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
@@ -3162,6 +3163,7 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11"/>
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
@@ -3293,8 +3295,8 @@
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="8"/>
-    <col width="9" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="9"/>
+    <col width="9" customWidth="1" style="1" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3510,8 +3512,8 @@
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="50"/>
-    <col width="9" customWidth="1" style="1" min="51" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="51"/>
+    <col width="9" customWidth="1" style="1" min="52" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3727,8 +3729,8 @@
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="50"/>
-    <col width="9" customWidth="1" style="1" min="51" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="51"/>
+    <col width="9" customWidth="1" style="1" min="52" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3944,8 +3946,8 @@
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="53"/>
-    <col width="9" customWidth="1" style="1" min="54" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="54"/>
+    <col width="9" customWidth="1" style="1" min="55" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4171,8 +4173,8 @@
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="53"/>
-    <col width="9" customWidth="1" style="1" min="54" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="54"/>
+    <col width="9" customWidth="1" style="1" min="55" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4370,14 +4372,14 @@
   </sheetPr>
   <dimension ref="B4:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="6"/>
-    <col width="9" customWidth="1" style="1" min="7" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="1" max="7"/>
+    <col width="9" customWidth="1" style="1" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="4">
@@ -4510,6 +4512,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>レア度によってガチャ演出の色変更</t>
+        </is>
+      </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">  File "c:\Users\wolke\git1009\new_system\game_play.py", line 417, in &lt;module&gt;</t>
@@ -4612,7 +4619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A3:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E59" sqref="E59"/>
@@ -4627,12 +4634,10 @@
     <col width="19.25" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
     <col width="15.125" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
     <col width="9" customWidth="1" style="12" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="13"/>
-    <col width="9" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="8" max="14"/>
+    <col width="9" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
@@ -5046,7 +5051,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20"/>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
@@ -5535,7 +5539,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41"/>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
@@ -5982,8 +5985,8 @@
     <col width="13.125" customWidth="1" style="5" min="8" max="8"/>
     <col width="9" customWidth="1" style="5" min="9" max="9"/>
     <col width="9" customWidth="1" style="6" min="10" max="10"/>
-    <col width="9" customWidth="1" style="1" min="11" max="16"/>
-    <col width="9" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="11" max="17"/>
+    <col width="9" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6220,7 +6223,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>2</v>
@@ -8361,8 +8364,8 @@
     <col width="4.125" customWidth="1" style="1" min="35" max="37"/>
     <col width="8.75" customWidth="1" style="1" min="38" max="38"/>
     <col width="4.125" customWidth="1" style="1" min="39" max="41"/>
-    <col width="8.75" customWidth="1" style="1" min="42" max="84"/>
-    <col width="8.75" customWidth="1" style="1" min="85" max="16384"/>
+    <col width="8.75" customWidth="1" style="1" min="42" max="85"/>
+    <col width="8.75" customWidth="1" style="1" min="86" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11045,8 +11048,8 @@
     <col width="4.125" customWidth="1" style="1" min="47" max="49"/>
     <col width="8.75" customWidth="1" style="1" min="50" max="50"/>
     <col width="4.125" customWidth="1" style="1" min="51" max="53"/>
-    <col width="8.75" customWidth="1" style="1" min="54" max="96"/>
-    <col width="8.75" customWidth="1" style="1" min="97" max="16384"/>
+    <col width="8.75" customWidth="1" style="1" min="54" max="97"/>
+    <col width="8.75" customWidth="1" style="1" min="98" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -20551,8 +20554,8 @@
     <col width="9" customWidth="1" style="1" min="1" max="2"/>
     <col width="14.125" customWidth="1" style="1" min="3" max="3"/>
     <col width="17.25" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9" customWidth="1" style="1" min="5" max="11"/>
-    <col width="9" customWidth="1" style="1" min="12" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="5" max="12"/>
+    <col width="9" customWidth="1" style="1" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -20831,8 +20834,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="6"/>
-    <col width="9" customWidth="1" style="1" min="7" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="1" max="7"/>
+    <col width="9" customWidth="1" style="1" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -20933,7 +20936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
@@ -20942,8 +20945,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="13.375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="9" customWidth="1" style="1" min="2" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="2" max="8"/>
+    <col width="9" customWidth="1" style="1" min="9" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -20993,7 +20996,7 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -21346,466 +21349,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214"/>
-    <row r="215"/>
-    <row r="216"/>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
-    <row r="221"/>
-    <row r="222"/>
-    <row r="223"/>
-    <row r="224"/>
-    <row r="225"/>
-    <row r="226"/>
-    <row r="227"/>
-    <row r="228"/>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
-    <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261"/>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
-    <row r="265"/>
-    <row r="266"/>
-    <row r="267"/>
-    <row r="268"/>
-    <row r="269"/>
-    <row r="270"/>
-    <row r="271"/>
-    <row r="272"/>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275"/>
-    <row r="276"/>
-    <row r="277"/>
-    <row r="278"/>
-    <row r="279"/>
-    <row r="280"/>
-    <row r="281"/>
-    <row r="282"/>
-    <row r="283"/>
-    <row r="284"/>
-    <row r="285"/>
-    <row r="286"/>
-    <row r="287"/>
-    <row r="288"/>
-    <row r="289"/>
-    <row r="290"/>
-    <row r="291"/>
-    <row r="292"/>
-    <row r="293"/>
-    <row r="294"/>
-    <row r="295"/>
-    <row r="296"/>
-    <row r="297"/>
-    <row r="298"/>
-    <row r="299"/>
-    <row r="300"/>
-    <row r="301"/>
-    <row r="302"/>
-    <row r="303"/>
-    <row r="304"/>
-    <row r="305"/>
-    <row r="306"/>
-    <row r="307"/>
-    <row r="308"/>
-    <row r="309"/>
-    <row r="310"/>
-    <row r="311"/>
-    <row r="312"/>
-    <row r="313"/>
-    <row r="314"/>
-    <row r="315"/>
-    <row r="316"/>
-    <row r="317"/>
-    <row r="318"/>
-    <row r="319"/>
-    <row r="320"/>
-    <row r="321"/>
-    <row r="322"/>
-    <row r="323"/>
-    <row r="324"/>
-    <row r="325"/>
-    <row r="326"/>
-    <row r="327"/>
-    <row r="328"/>
-    <row r="329"/>
-    <row r="330"/>
-    <row r="331"/>
-    <row r="332"/>
-    <row r="333"/>
-    <row r="334"/>
-    <row r="335"/>
-    <row r="336"/>
-    <row r="337"/>
-    <row r="338"/>
-    <row r="339"/>
-    <row r="340"/>
-    <row r="341"/>
-    <row r="342"/>
-    <row r="343"/>
-    <row r="344"/>
-    <row r="345"/>
-    <row r="346"/>
-    <row r="347"/>
-    <row r="348"/>
-    <row r="349"/>
-    <row r="350"/>
-    <row r="351"/>
-    <row r="352"/>
-    <row r="353"/>
-    <row r="354"/>
-    <row r="355"/>
-    <row r="356"/>
-    <row r="357"/>
-    <row r="358"/>
-    <row r="359"/>
-    <row r="360"/>
-    <row r="361"/>
-    <row r="362"/>
-    <row r="363"/>
-    <row r="364"/>
-    <row r="365"/>
-    <row r="366"/>
-    <row r="367"/>
-    <row r="368"/>
-    <row r="369"/>
-    <row r="370"/>
-    <row r="371"/>
-    <row r="372"/>
-    <row r="373"/>
-    <row r="374"/>
-    <row r="375"/>
-    <row r="376"/>
-    <row r="377"/>
-    <row r="378"/>
-    <row r="379"/>
-    <row r="380"/>
-    <row r="381"/>
-    <row r="382"/>
-    <row r="383"/>
-    <row r="384"/>
-    <row r="385"/>
-    <row r="386"/>
-    <row r="387"/>
-    <row r="388"/>
-    <row r="389"/>
-    <row r="390"/>
-    <row r="391"/>
-    <row r="392"/>
-    <row r="393"/>
-    <row r="394"/>
-    <row r="395"/>
-    <row r="396"/>
-    <row r="397"/>
-    <row r="398"/>
-    <row r="399"/>
-    <row r="400"/>
-    <row r="401"/>
-    <row r="402"/>
-    <row r="403"/>
-    <row r="404"/>
-    <row r="405"/>
-    <row r="406"/>
-    <row r="407"/>
-    <row r="408"/>
-    <row r="409"/>
-    <row r="410"/>
-    <row r="411"/>
-    <row r="412"/>
-    <row r="413"/>
-    <row r="414"/>
-    <row r="415"/>
-    <row r="416"/>
-    <row r="417"/>
-    <row r="418"/>
-    <row r="419"/>
-    <row r="420"/>
-    <row r="421"/>
-    <row r="422"/>
-    <row r="423"/>
-    <row r="424"/>
-    <row r="425"/>
-    <row r="426"/>
-    <row r="427"/>
-    <row r="428"/>
-    <row r="429"/>
-    <row r="430"/>
-    <row r="431"/>
-    <row r="432"/>
-    <row r="433"/>
-    <row r="434"/>
-    <row r="435"/>
-    <row r="436"/>
-    <row r="437"/>
-    <row r="438"/>
-    <row r="439"/>
-    <row r="440"/>
-    <row r="441"/>
-    <row r="442"/>
-    <row r="443"/>
-    <row r="444"/>
-    <row r="445"/>
-    <row r="446"/>
-    <row r="447"/>
-    <row r="448"/>
-    <row r="449"/>
-    <row r="450"/>
-    <row r="451"/>
-    <row r="452"/>
-    <row r="453"/>
-    <row r="454"/>
-    <row r="455"/>
-    <row r="456"/>
-    <row r="457"/>
-    <row r="458"/>
-    <row r="459"/>
-    <row r="460"/>
-    <row r="461"/>
-    <row r="462"/>
-    <row r="463"/>
-    <row r="464"/>
-    <row r="465"/>
-    <row r="466"/>
-    <row r="467"/>
-    <row r="468"/>
-    <row r="469"/>
-    <row r="470"/>
-    <row r="471"/>
-    <row r="472"/>
-    <row r="473"/>
-    <row r="474"/>
-    <row r="475"/>
-    <row r="476"/>
-    <row r="477"/>
-    <row r="478"/>
-    <row r="479"/>
-    <row r="480"/>
-    <row r="481"/>
-    <row r="482"/>
-    <row r="483"/>
-    <row r="484"/>
-    <row r="485"/>
-    <row r="486"/>
-    <row r="487"/>
-    <row r="488"/>
-    <row r="489"/>
-    <row r="490"/>
-    <row r="491"/>
-    <row r="492"/>
-    <row r="493"/>
-    <row r="494"/>
-    <row r="495"/>
-    <row r="496"/>
-    <row r="497"/>
-    <row r="498"/>
-    <row r="499"/>
-    <row r="500"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/new_system/systems/base.xlsx
+++ b/new_system/systems/base.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーステータス" sheetId="1" state="visible" r:id="rId1"/>
@@ -648,18 +648,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col width="8.75" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="8.75" customWidth="1" style="1" min="3" max="58"/>
-    <col width="8.75" customWidth="1" style="1" min="59" max="16384"/>
+    <col width="8.75" customWidth="1" style="1" min="3" max="61"/>
+    <col width="8.75" customWidth="1" style="1" min="62" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>240</v>
+        <v>470</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>240</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0</v>
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>395</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>75</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>1297</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="11">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12">
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1038,6 +1038,71 @@
         <is>
           <t>id以外は、計算に使われていない。</t>
         </is>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>water_attr</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>plant_attr</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>dark_attr</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>113</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>elect_attr</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1058,11 +1123,11 @@
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="13.375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="9" customWidth="1" style="1" min="2" max="20"/>
-    <col width="9" customWidth="1" style="1" min="21" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="2" max="23"/>
+    <col width="9" customWidth="1" style="1" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1482,7 +1547,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="25.5" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="5.75" customWidth="1" style="1" min="2" max="4"/>
@@ -1497,8 +1562,8 @@
     <col width="11.125" bestFit="1" customWidth="1" style="1" min="20" max="20"/>
     <col width="11.125" customWidth="1" style="1" min="21" max="21"/>
     <col width="11.125" bestFit="1" customWidth="1" style="1" min="22" max="22"/>
-    <col width="9" customWidth="1" style="1" min="23" max="40"/>
-    <col width="9" customWidth="1" style="1" min="41" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="23" max="43"/>
+    <col width="9" customWidth="1" style="1" min="44" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1920,10 +1985,10 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="19"/>
-    <col width="9" customWidth="1" style="1" min="20" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="1" max="22"/>
+    <col width="9" customWidth="1" style="1" min="23" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3397,12 +3462,12 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="21"/>
-    <col width="9" customWidth="1" style="1" min="22" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="24"/>
+    <col width="9" customWidth="1" style="1" min="25" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3624,12 +3689,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="21"/>
-    <col width="9" customWidth="1" style="1" min="22" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="24"/>
+    <col width="9" customWidth="1" style="1" min="25" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3840,12 +3905,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="21"/>
-    <col width="9" customWidth="1" style="1" min="22" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="24"/>
+    <col width="9" customWidth="1" style="1" min="25" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4057,12 +4122,12 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="63"/>
-    <col width="9" customWidth="1" style="1" min="64" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="66"/>
+    <col width="9" customWidth="1" style="1" min="67" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4274,12 +4339,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="63"/>
-    <col width="9" customWidth="1" style="1" min="64" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="66"/>
+    <col width="9" customWidth="1" style="1" min="67" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4491,12 +4556,12 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="66"/>
-    <col width="9" customWidth="1" style="1" min="67" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="69"/>
+    <col width="9" customWidth="1" style="1" min="70" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4718,12 +4783,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="66"/>
-    <col width="9" customWidth="1" style="1" min="67" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="69"/>
+    <col width="9" customWidth="1" style="1" min="70" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4925,10 +4990,10 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="19"/>
-    <col width="9" customWidth="1" style="1" min="20" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="1" max="22"/>
+    <col width="9" customWidth="1" style="1" min="23" max="16384"/>
   </cols>
   <sheetData>
     <row r="4">
@@ -5199,10 +5264,10 @@
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="19"/>
-    <col width="9" customWidth="1" style="1" min="20" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="1" max="22"/>
+    <col width="9" customWidth="1" style="1" min="23" max="16384"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5218,13 +5283,13 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="10"/>
-    <col width="9" customWidth="1" style="1" min="11" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="1" max="13"/>
+    <col width="9" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5680,13 +5745,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A3:G97"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="29.625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="4.125" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
@@ -5695,12 +5760,10 @@
     <col width="19.25" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
     <col width="15.125" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
     <col width="9" customWidth="1" style="25" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="26"/>
-    <col width="9" customWidth="1" style="1" min="27" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="8" max="29"/>
+    <col width="9" customWidth="1" style="1" min="30" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
@@ -6114,7 +6177,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20"/>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
@@ -6603,7 +6665,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41"/>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
@@ -7020,7 +7081,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59"/>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
@@ -7931,13 +7991,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV500"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="13" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
     <col width="21.375" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
@@ -7950,8 +8010,8 @@
     <col width="9" customWidth="1" style="5" min="9" max="9"/>
     <col width="9.75" customWidth="1" style="5" min="10" max="10"/>
     <col width="9" customWidth="1" style="6" min="11" max="11"/>
-    <col width="9" customWidth="1" style="1" min="12" max="30"/>
-    <col width="9" customWidth="1" style="1" min="31" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="12" max="33"/>
+    <col width="9" customWidth="1" style="1" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8337,7 +8397,7 @@
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>知恵の書</t>
+          <t>妨害の笛</t>
         </is>
       </c>
       <c r="C11" s="5" t="n">
@@ -8347,22 +8407,22 @@
         <v>1</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>all_attr_temporal</t>
+          <t>enemy_jam</t>
         </is>
       </c>
       <c r="G11" s="5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="6" t="inlineStr">
         <is>
-          <t>選択肢が低確率で減少する</t>
+          <t>敵の行動を1ターン妨害する</t>
         </is>
       </c>
     </row>
@@ -8374,32 +8434,32 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>叡智の書</t>
+          <t>爆音の魔笛</t>
         </is>
       </c>
       <c r="C12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>enemy_jam</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="n">
         <v>2</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>all_attr_temporal</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>20</v>
       </c>
       <c r="I12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K12" s="6" t="inlineStr">
         <is>
-          <t>選択肢が中確率で減少する</t>
+          <t>敵の行動を2ターン妨害する</t>
         </is>
       </c>
     </row>
@@ -8411,32 +8471,34 @@
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>賢者の書</t>
+          <t>スライムゼリー</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>all_attr_temporal</t>
+          <t>hp_rec</t>
         </is>
       </c>
       <c r="G13" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K13" s="6" t="inlineStr">
         <is>
-          <t>選択肢が高確率で減少する</t>
+          <t>HPを10回復</t>
+        </is>
+      </c>
+      <c r="N13" s="1" t="inlineStr">
+        <is>
+          <t>実質属性値＝武器攻撃力＊属性値合計＊敵との相性倍率(0.5~2？）</t>
         </is>
       </c>
     </row>
@@ -8448,32 +8510,34 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>全知の書</t>
+          <t>豚バラ</t>
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9999</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>all_attr_temporal</t>
+          <t>hp_rec</t>
         </is>
       </c>
       <c r="G14" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K14" s="6" t="inlineStr">
         <is>
-          <t>選択肢が超高確率で減少する</t>
+          <t>HPを15回復</t>
+        </is>
+      </c>
+      <c r="N14" s="1" t="inlineStr">
+        <is>
+          <t>選択肢数＝4 - 実質属性値/100 + 敵防御定数（全属性固定）</t>
         </is>
       </c>
     </row>
@@ -8485,29 +8549,29 @@
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t>水の書</t>
+          <t>豚ロース</t>
         </is>
       </c>
       <c r="C15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9999</v>
+        <v>12</v>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>water_attr_temporal</t>
+          <t>hp_rec</t>
         </is>
       </c>
       <c r="G15" s="5" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K15" s="6" t="inlineStr">
         <is>
-          <t>水属性選択肢が減少する</t>
+          <t>HPを20回復</t>
         </is>
       </c>
     </row>
@@ -8519,29 +8583,29 @@
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
-          <t>木の書</t>
+          <t>豚ヒレ</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9999</v>
+        <v>20</v>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>plant_attr_temporal</t>
+          <t>hp_rec</t>
         </is>
       </c>
       <c r="G16" s="5" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K16" s="6" t="inlineStr">
         <is>
-          <t>木属性選択肢が減少する</t>
+          <t>HPを30回復</t>
         </is>
       </c>
     </row>
@@ -8553,146 +8617,115 @@
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
-          <t>闇の書</t>
+          <t>焼肉弁当</t>
         </is>
       </c>
       <c r="C17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="E17" s="5" t="n">
-        <v>9999</v>
+        <v>50</v>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>dark_attr_temporal</t>
+          <t>hp_rec</t>
         </is>
       </c>
       <c r="G17" s="5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K17" s="6" t="inlineStr">
         <is>
-          <t>闇属性選択肢が減少する</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>戦闘用消耗品</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>雷の書</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>9999</v>
-      </c>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t>elect_attr_temporal</t>
-        </is>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>80</v>
-      </c>
-      <c r="K18" s="6" t="inlineStr">
-        <is>
-          <t>雷属性選択肢が減少する</t>
+          <t>HPを60回復</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>戦闘用消耗品</t>
+          <t>戦闘開始時消耗品</t>
         </is>
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
-          <t>深淵の魔導書</t>
+          <t>知恵の書</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="5" t="n">
-        <v>4</v>
-      </c>
       <c r="E19" s="5" t="n">
-        <v>9999</v>
+        <v>250</v>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>dark_attr_temporal</t>
+          <t>all_attr_temporal</t>
         </is>
       </c>
       <c r="G19" s="5" t="n">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="K19" s="6" t="inlineStr">
         <is>
-          <t>闇属性選択肢が大きく減少する</t>
+          <t>選択肢が低確率で減少する</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>戦闘用消耗品</t>
+          <t>戦闘開始時消耗品</t>
         </is>
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>妨害の笛</t>
+          <t>叡智の書</t>
         </is>
       </c>
       <c r="C20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>1000</v>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>enemy_jam</t>
+          <t>all_attr_temporal</t>
         </is>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K20" s="6" t="inlineStr">
         <is>
-          <t>敵の行動を1ターン妨害する</t>
+          <t>選択肢が中確率で減少する</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>戦闘用消耗品</t>
+          <t>戦闘開始時消耗品</t>
         </is>
       </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
-          <t>爆音の魔笛</t>
+          <t>賢者の書</t>
         </is>
       </c>
       <c r="C21" s="5" t="n">
@@ -8702,208 +8735,247 @@
         <v>3</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>enemy_jam</t>
+          <t>all_attr_temporal</t>
         </is>
       </c>
       <c r="G21" s="5" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K21" s="6" t="inlineStr">
         <is>
-          <t>敵の行動を2ターン妨害する</t>
+          <t>選択肢が高確率で減少する</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>戦闘用消耗品</t>
+          <t>戦闘開始時消耗品</t>
         </is>
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>スライムゼリー</t>
+          <t>全知の書</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>9999</v>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>all_attr_temporal</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t>hp_rec</t>
-        </is>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>10</v>
-      </c>
       <c r="K22" s="6" t="inlineStr">
         <is>
-          <t>HPを10回復</t>
-        </is>
-      </c>
-      <c r="N22" s="1" t="inlineStr">
-        <is>
-          <t>実質属性値＝武器攻撃力＊属性値合計＊敵との相性倍率(0.5~2？）</t>
+          <t>選択肢が超高確率で減少する</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>戦闘用消耗品</t>
+          <t>戦闘開始時消耗品</t>
         </is>
       </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
-          <t>豚バラ</t>
+          <t>水の書</t>
         </is>
       </c>
       <c r="C23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>9999</v>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>water_attr_temporal</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F23" s="5" t="inlineStr">
-        <is>
-          <t>hp_rec</t>
-        </is>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>15</v>
-      </c>
       <c r="K23" s="6" t="inlineStr">
         <is>
-          <t>HPを15回復</t>
-        </is>
-      </c>
-      <c r="N23" s="1" t="inlineStr">
-        <is>
-          <t>選択肢数＝4 - 実質属性値/100 + 敵防御定数（全属性固定）</t>
+          <t>水属性選択肢が減少する</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>戦闘用消耗品</t>
+          <t>戦闘開始時消耗品</t>
         </is>
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>豚ロース</t>
+          <t>木の書</t>
         </is>
       </c>
       <c r="C24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>9999</v>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>plant_attr_temporal</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="F24" s="5" t="inlineStr">
-        <is>
-          <t>hp_rec</t>
-        </is>
-      </c>
-      <c r="G24" s="5" t="n">
-        <v>20</v>
-      </c>
       <c r="K24" s="6" t="inlineStr">
         <is>
-          <t>HPを20回復</t>
+          <t>木属性選択肢が減少する</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>戦闘用消耗品</t>
+          <t>戦闘開始時消耗品</t>
         </is>
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
-          <t>豚ヒレ</t>
+          <t>闇の書</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>9999</v>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>dark_attr_temporal</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F25" s="5" t="inlineStr">
-        <is>
-          <t>hp_rec</t>
-        </is>
-      </c>
-      <c r="G25" s="5" t="n">
-        <v>30</v>
-      </c>
       <c r="K25" s="6" t="inlineStr">
         <is>
-          <t>HPを30回復</t>
+          <t>闇属性選択肢が減少する</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>戦闘用消耗品</t>
+          <t>戦闘開始時消耗品</t>
         </is>
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>焼肉弁当</t>
+          <t>雷の書</t>
         </is>
       </c>
       <c r="C26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>9999</v>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>elect_attr_temporal</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="I26" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>hp_rec</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="n">
-        <v>60</v>
-      </c>
       <c r="K26" s="6" t="inlineStr">
         <is>
-          <t>HPを60回復</t>
-        </is>
-      </c>
-    </row>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
+          <t>雷属性選択肢が減少する</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>戦闘開始時消耗品</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>深淵の魔導書</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>9999</v>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>dark_attr_temporal</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="6" t="inlineStr">
+        <is>
+          <t>闇属性選択肢が大きく減少する</t>
+        </is>
+      </c>
+    </row>
     <row r="30">
       <c r="A30" s="5" t="inlineStr">
         <is>
@@ -9694,7 +9766,7 @@
         </is>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>5</v>
@@ -9734,7 +9806,7 @@
         </is>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>5</v>
@@ -9774,7 +9846,7 @@
         </is>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>5</v>
@@ -9814,7 +9886,7 @@
         </is>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>5</v>
@@ -9842,10 +9914,6 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
     <row r="57">
       <c r="A57" s="5" t="inlineStr">
         <is>
@@ -10030,7 +10098,7 @@
         </is>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>4</v>
@@ -10067,7 +10135,7 @@
         </is>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>4</v>
@@ -10104,7 +10172,7 @@
         </is>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>4</v>
@@ -10141,7 +10209,7 @@
         </is>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>5</v>
@@ -10178,7 +10246,7 @@
         </is>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>5</v>
@@ -10215,7 +10283,7 @@
         </is>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>5</v>
@@ -10240,7 +10308,6 @@
         </is>
       </c>
     </row>
-    <row r="67"/>
     <row r="68">
       <c r="A68" s="5" t="inlineStr">
         <is>
@@ -10278,438 +10345,6 @@
         </is>
       </c>
     </row>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214"/>
-    <row r="215"/>
-    <row r="216"/>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
-    <row r="221"/>
-    <row r="222"/>
-    <row r="223"/>
-    <row r="224"/>
-    <row r="225"/>
-    <row r="226"/>
-    <row r="227"/>
-    <row r="228"/>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
-    <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261"/>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
-    <row r="265"/>
-    <row r="266"/>
-    <row r="267"/>
-    <row r="268"/>
-    <row r="269"/>
-    <row r="270"/>
-    <row r="271"/>
-    <row r="272"/>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275"/>
-    <row r="276"/>
-    <row r="277"/>
-    <row r="278"/>
-    <row r="279"/>
-    <row r="280"/>
-    <row r="281"/>
-    <row r="282"/>
-    <row r="283"/>
-    <row r="284"/>
-    <row r="285"/>
-    <row r="286"/>
-    <row r="287"/>
-    <row r="288"/>
-    <row r="289"/>
-    <row r="290"/>
-    <row r="291"/>
-    <row r="292"/>
-    <row r="293"/>
-    <row r="294"/>
-    <row r="295"/>
-    <row r="296"/>
-    <row r="297"/>
-    <row r="298"/>
-    <row r="299"/>
-    <row r="300"/>
-    <row r="301"/>
-    <row r="302"/>
-    <row r="303"/>
-    <row r="304"/>
-    <row r="305"/>
-    <row r="306"/>
-    <row r="307"/>
-    <row r="308"/>
-    <row r="309"/>
-    <row r="310"/>
-    <row r="311"/>
-    <row r="312"/>
-    <row r="313"/>
-    <row r="314"/>
-    <row r="315"/>
-    <row r="316"/>
-    <row r="317"/>
-    <row r="318"/>
-    <row r="319"/>
-    <row r="320"/>
-    <row r="321"/>
-    <row r="322"/>
-    <row r="323"/>
-    <row r="324"/>
-    <row r="325"/>
-    <row r="326"/>
-    <row r="327"/>
-    <row r="328"/>
-    <row r="329"/>
-    <row r="330"/>
-    <row r="331"/>
-    <row r="332"/>
-    <row r="333"/>
-    <row r="334"/>
-    <row r="335"/>
-    <row r="336"/>
-    <row r="337"/>
-    <row r="338"/>
-    <row r="339"/>
-    <row r="340"/>
-    <row r="341"/>
-    <row r="342"/>
-    <row r="343"/>
-    <row r="344"/>
-    <row r="345"/>
-    <row r="346"/>
-    <row r="347"/>
-    <row r="348"/>
-    <row r="349"/>
-    <row r="350"/>
-    <row r="351"/>
-    <row r="352"/>
-    <row r="353"/>
-    <row r="354"/>
-    <row r="355"/>
-    <row r="356"/>
-    <row r="357"/>
-    <row r="358"/>
-    <row r="359"/>
-    <row r="360"/>
-    <row r="361"/>
-    <row r="362"/>
-    <row r="363"/>
-    <row r="364"/>
-    <row r="365"/>
-    <row r="366"/>
-    <row r="367"/>
-    <row r="368"/>
-    <row r="369"/>
-    <row r="370"/>
-    <row r="371"/>
-    <row r="372"/>
-    <row r="373"/>
-    <row r="374"/>
-    <row r="375"/>
-    <row r="376"/>
-    <row r="377"/>
-    <row r="378"/>
-    <row r="379"/>
-    <row r="380"/>
-    <row r="381"/>
-    <row r="382"/>
-    <row r="383"/>
-    <row r="384"/>
-    <row r="385"/>
-    <row r="386"/>
-    <row r="387"/>
-    <row r="388"/>
-    <row r="389"/>
-    <row r="390"/>
-    <row r="391"/>
-    <row r="392"/>
-    <row r="393"/>
-    <row r="394"/>
-    <row r="395"/>
-    <row r="396"/>
-    <row r="397"/>
-    <row r="398"/>
-    <row r="399"/>
-    <row r="400"/>
-    <row r="401"/>
-    <row r="402"/>
-    <row r="403"/>
-    <row r="404"/>
-    <row r="405"/>
-    <row r="406"/>
-    <row r="407"/>
-    <row r="408"/>
-    <row r="409"/>
-    <row r="410"/>
-    <row r="411"/>
-    <row r="412"/>
-    <row r="413"/>
-    <row r="414"/>
-    <row r="415"/>
-    <row r="416"/>
-    <row r="417"/>
-    <row r="418"/>
-    <row r="419"/>
-    <row r="420"/>
-    <row r="421"/>
-    <row r="422"/>
-    <row r="423"/>
-    <row r="424"/>
-    <row r="425"/>
-    <row r="426"/>
-    <row r="427"/>
-    <row r="428"/>
-    <row r="429"/>
-    <row r="430"/>
-    <row r="431"/>
-    <row r="432"/>
-    <row r="433"/>
-    <row r="434"/>
-    <row r="435"/>
-    <row r="436"/>
-    <row r="437"/>
-    <row r="438"/>
-    <row r="439"/>
-    <row r="440"/>
-    <row r="441"/>
-    <row r="442"/>
-    <row r="443"/>
-    <row r="444"/>
-    <row r="445"/>
-    <row r="446"/>
-    <row r="447"/>
-    <row r="448"/>
-    <row r="449"/>
-    <row r="450"/>
-    <row r="451"/>
-    <row r="452"/>
-    <row r="453"/>
-    <row r="454"/>
-    <row r="455"/>
-    <row r="456"/>
-    <row r="457"/>
-    <row r="458"/>
-    <row r="459"/>
-    <row r="460"/>
-    <row r="461"/>
-    <row r="462"/>
-    <row r="463"/>
-    <row r="464"/>
-    <row r="465"/>
-    <row r="466"/>
-    <row r="467"/>
-    <row r="468"/>
-    <row r="469"/>
-    <row r="470"/>
-    <row r="471"/>
-    <row r="472"/>
-    <row r="473"/>
-    <row r="474"/>
-    <row r="475"/>
-    <row r="476"/>
-    <row r="477"/>
-    <row r="478"/>
-    <row r="479"/>
-    <row r="480"/>
-    <row r="481"/>
-    <row r="482"/>
-    <row r="483"/>
-    <row r="484"/>
-    <row r="485"/>
-    <row r="486"/>
-    <row r="487"/>
-    <row r="488"/>
-    <row r="489"/>
-    <row r="490"/>
-    <row r="491"/>
-    <row r="492"/>
-    <row r="493"/>
-    <row r="494"/>
-    <row r="495"/>
-    <row r="496"/>
-    <row r="497"/>
-    <row r="498"/>
-    <row r="499"/>
-    <row r="500"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -10722,13 +10357,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O500"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col width="3.25" customWidth="1" style="1" min="1" max="1"/>
     <col width="8.75" customWidth="1" style="1" min="2" max="2"/>
@@ -10754,8 +10389,8 @@
     <col width="4.125" customWidth="1" style="1" min="35" max="37"/>
     <col width="8.75" customWidth="1" style="1" min="38" max="38"/>
     <col width="4.125" customWidth="1" style="1" min="39" max="41"/>
-    <col width="8.75" customWidth="1" style="1" min="42" max="97"/>
-    <col width="8.75" customWidth="1" style="1" min="98" max="16384"/>
+    <col width="8.75" customWidth="1" style="1" min="42" max="100"/>
+    <col width="8.75" customWidth="1" style="1" min="101" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12701,7 +12336,6 @@
         </is>
       </c>
     </row>
-    <row r="63"/>
     <row r="64">
       <c r="C64" s="1" t="inlineStr">
         <is>
@@ -12970,430 +12604,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214"/>
-    <row r="215"/>
-    <row r="216"/>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
-    <row r="221"/>
-    <row r="222"/>
-    <row r="223"/>
-    <row r="224"/>
-    <row r="225"/>
-    <row r="226"/>
-    <row r="227"/>
-    <row r="228"/>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
-    <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261"/>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
-    <row r="265"/>
-    <row r="266"/>
-    <row r="267"/>
-    <row r="268"/>
-    <row r="269"/>
-    <row r="270"/>
-    <row r="271"/>
-    <row r="272"/>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275"/>
-    <row r="276"/>
-    <row r="277"/>
-    <row r="278"/>
-    <row r="279"/>
-    <row r="280"/>
-    <row r="281"/>
-    <row r="282"/>
-    <row r="283"/>
-    <row r="284"/>
-    <row r="285"/>
-    <row r="286"/>
-    <row r="287"/>
-    <row r="288"/>
-    <row r="289"/>
-    <row r="290"/>
-    <row r="291"/>
-    <row r="292"/>
-    <row r="293"/>
-    <row r="294"/>
-    <row r="295"/>
-    <row r="296"/>
-    <row r="297"/>
-    <row r="298"/>
-    <row r="299"/>
-    <row r="300"/>
-    <row r="301"/>
-    <row r="302"/>
-    <row r="303"/>
-    <row r="304"/>
-    <row r="305"/>
-    <row r="306"/>
-    <row r="307"/>
-    <row r="308"/>
-    <row r="309"/>
-    <row r="310"/>
-    <row r="311"/>
-    <row r="312"/>
-    <row r="313"/>
-    <row r="314"/>
-    <row r="315"/>
-    <row r="316"/>
-    <row r="317"/>
-    <row r="318"/>
-    <row r="319"/>
-    <row r="320"/>
-    <row r="321"/>
-    <row r="322"/>
-    <row r="323"/>
-    <row r="324"/>
-    <row r="325"/>
-    <row r="326"/>
-    <row r="327"/>
-    <row r="328"/>
-    <row r="329"/>
-    <row r="330"/>
-    <row r="331"/>
-    <row r="332"/>
-    <row r="333"/>
-    <row r="334"/>
-    <row r="335"/>
-    <row r="336"/>
-    <row r="337"/>
-    <row r="338"/>
-    <row r="339"/>
-    <row r="340"/>
-    <row r="341"/>
-    <row r="342"/>
-    <row r="343"/>
-    <row r="344"/>
-    <row r="345"/>
-    <row r="346"/>
-    <row r="347"/>
-    <row r="348"/>
-    <row r="349"/>
-    <row r="350"/>
-    <row r="351"/>
-    <row r="352"/>
-    <row r="353"/>
-    <row r="354"/>
-    <row r="355"/>
-    <row r="356"/>
-    <row r="357"/>
-    <row r="358"/>
-    <row r="359"/>
-    <row r="360"/>
-    <row r="361"/>
-    <row r="362"/>
-    <row r="363"/>
-    <row r="364"/>
-    <row r="365"/>
-    <row r="366"/>
-    <row r="367"/>
-    <row r="368"/>
-    <row r="369"/>
-    <row r="370"/>
-    <row r="371"/>
-    <row r="372"/>
-    <row r="373"/>
-    <row r="374"/>
-    <row r="375"/>
-    <row r="376"/>
-    <row r="377"/>
-    <row r="378"/>
-    <row r="379"/>
-    <row r="380"/>
-    <row r="381"/>
-    <row r="382"/>
-    <row r="383"/>
-    <row r="384"/>
-    <row r="385"/>
-    <row r="386"/>
-    <row r="387"/>
-    <row r="388"/>
-    <row r="389"/>
-    <row r="390"/>
-    <row r="391"/>
-    <row r="392"/>
-    <row r="393"/>
-    <row r="394"/>
-    <row r="395"/>
-    <row r="396"/>
-    <row r="397"/>
-    <row r="398"/>
-    <row r="399"/>
-    <row r="400"/>
-    <row r="401"/>
-    <row r="402"/>
-    <row r="403"/>
-    <row r="404"/>
-    <row r="405"/>
-    <row r="406"/>
-    <row r="407"/>
-    <row r="408"/>
-    <row r="409"/>
-    <row r="410"/>
-    <row r="411"/>
-    <row r="412"/>
-    <row r="413"/>
-    <row r="414"/>
-    <row r="415"/>
-    <row r="416"/>
-    <row r="417"/>
-    <row r="418"/>
-    <row r="419"/>
-    <row r="420"/>
-    <row r="421"/>
-    <row r="422"/>
-    <row r="423"/>
-    <row r="424"/>
-    <row r="425"/>
-    <row r="426"/>
-    <row r="427"/>
-    <row r="428"/>
-    <row r="429"/>
-    <row r="430"/>
-    <row r="431"/>
-    <row r="432"/>
-    <row r="433"/>
-    <row r="434"/>
-    <row r="435"/>
-    <row r="436"/>
-    <row r="437"/>
-    <row r="438"/>
-    <row r="439"/>
-    <row r="440"/>
-    <row r="441"/>
-    <row r="442"/>
-    <row r="443"/>
-    <row r="444"/>
-    <row r="445"/>
-    <row r="446"/>
-    <row r="447"/>
-    <row r="448"/>
-    <row r="449"/>
-    <row r="450"/>
-    <row r="451"/>
-    <row r="452"/>
-    <row r="453"/>
-    <row r="454"/>
-    <row r="455"/>
-    <row r="456"/>
-    <row r="457"/>
-    <row r="458"/>
-    <row r="459"/>
-    <row r="460"/>
-    <row r="461"/>
-    <row r="462"/>
-    <row r="463"/>
-    <row r="464"/>
-    <row r="465"/>
-    <row r="466"/>
-    <row r="467"/>
-    <row r="468"/>
-    <row r="469"/>
-    <row r="470"/>
-    <row r="471"/>
-    <row r="472"/>
-    <row r="473"/>
-    <row r="474"/>
-    <row r="475"/>
-    <row r="476"/>
-    <row r="477"/>
-    <row r="478"/>
-    <row r="479"/>
-    <row r="480"/>
-    <row r="481"/>
-    <row r="482"/>
-    <row r="483"/>
-    <row r="484"/>
-    <row r="485"/>
-    <row r="486"/>
-    <row r="487"/>
-    <row r="488"/>
-    <row r="489"/>
-    <row r="490"/>
-    <row r="491"/>
-    <row r="492"/>
-    <row r="493"/>
-    <row r="494"/>
-    <row r="495"/>
-    <row r="496"/>
-    <row r="497"/>
-    <row r="498"/>
-    <row r="499"/>
-    <row r="500"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -13408,11 +12618,11 @@
   </sheetPr>
   <dimension ref="A1:CV913"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col width="4.5" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="8.75" customWidth="1" style="1" min="2" max="2"/>
@@ -13440,8 +12650,8 @@
     <col width="4.125" customWidth="1" style="1" min="52" max="54"/>
     <col width="8.75" customWidth="1" style="1" min="55" max="55"/>
     <col width="4.125" customWidth="1" style="1" min="56" max="58"/>
-    <col width="8.75" customWidth="1" style="1" min="59" max="114"/>
-    <col width="8.75" customWidth="1" style="1" min="115" max="16384"/>
+    <col width="8.75" customWidth="1" style="1" min="59" max="117"/>
+    <col width="8.75" customWidth="1" style="1" min="118" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="11">
@@ -13897,22 +13107,62 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>dark_attr</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>160</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>water_attr</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>122</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>plant_attr</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>157</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>dark_attr</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>190</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>elect_attr</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="9">
@@ -23178,13 +22428,13 @@
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="2"/>
     <col width="14.125" customWidth="1" style="1" min="3" max="3"/>
     <col width="17.25" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9" customWidth="1" style="1" min="5" max="24"/>
-    <col width="9" customWidth="1" style="1" min="25" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="5" max="27"/>
+    <col width="9" customWidth="1" style="1" min="28" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -23461,10 +22711,10 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="19"/>
-    <col width="9" customWidth="1" style="1" min="20" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="1" max="22"/>
+    <col width="9" customWidth="1" style="1" min="23" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/new_system/systems/base.xlsx
+++ b/new_system/systems/base.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="装備箱" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -675,13 +675,13 @@
   <dimension ref="B4:H72"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="37"/>
-    <col width="9" customWidth="1" style="1" min="38" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="1" max="39"/>
+    <col width="9" customWidth="1" style="1" min="40" max="16384"/>
   </cols>
   <sheetData>
     <row r="4">
@@ -1134,6 +1134,13 @@
       <c r="F63" s="1" t="inlineStr">
         <is>
           <t>→マップ選択からボス戦闘1~2ターン</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>returnk</t>
         </is>
       </c>
     </row>
@@ -1197,10 +1204,10 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="37"/>
-    <col width="9" customWidth="1" style="1" min="38" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="1" max="39"/>
+    <col width="9" customWidth="1" style="1" min="40" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2674,13 +2681,13 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="2"/>
     <col width="14.125" customWidth="1" style="1" min="3" max="3"/>
     <col width="21.375" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9" customWidth="1" style="1" min="5" max="42"/>
-    <col width="9" customWidth="1" style="1" min="43" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="5" max="44"/>
+    <col width="9" customWidth="1" style="1" min="45" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3068,10 +3075,10 @@
       <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="37"/>
-    <col width="9" customWidth="1" style="1" min="38" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="1" max="39"/>
+    <col width="9" customWidth="1" style="1" min="40" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3178,12 +3185,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="39"/>
-    <col width="9" customWidth="1" style="1" min="40" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="41"/>
+    <col width="9" customWidth="1" style="1" min="42" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3410,12 +3417,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="39"/>
-    <col width="9" customWidth="1" style="1" min="40" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="41"/>
+    <col width="9" customWidth="1" style="1" min="42" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3627,12 +3634,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="81"/>
-    <col width="9" customWidth="1" style="1" min="82" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="83"/>
+    <col width="9" customWidth="1" style="1" min="84" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3844,12 +3851,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="39"/>
-    <col width="9" customWidth="1" style="1" min="40" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="41"/>
+    <col width="9" customWidth="1" style="1" min="42" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4061,12 +4068,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="81"/>
-    <col width="9" customWidth="1" style="1" min="82" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="83"/>
+    <col width="9" customWidth="1" style="1" min="84" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4278,12 +4285,12 @@
       <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="39"/>
-    <col width="9" customWidth="1" style="1" min="40" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="41"/>
+    <col width="9" customWidth="1" style="1" min="42" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4495,12 +4502,12 @@
       <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="81"/>
-    <col width="9" customWidth="1" style="1" min="82" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="83"/>
+    <col width="9" customWidth="1" style="1" min="84" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4708,16 +4715,16 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col width="8.75" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="8.75" customWidth="1" style="1" min="3" max="76"/>
-    <col width="8.75" customWidth="1" style="1" min="77" max="16384"/>
+    <col width="8.75" customWidth="1" style="1" min="3" max="78"/>
+    <col width="8.75" customWidth="1" style="1" min="79" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4859,7 +4866,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>67608</v>
+        <v>67822</v>
       </c>
     </row>
     <row r="11">
@@ -4869,7 +4876,7 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>12237</v>
+        <v>12461</v>
       </c>
     </row>
     <row r="12">
@@ -4890,7 +4897,7 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15"/>
@@ -5138,12 +5145,12 @@
       <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="39"/>
-    <col width="9" customWidth="1" style="1" min="40" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="41"/>
+    <col width="9" customWidth="1" style="1" min="42" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5355,12 +5362,12 @@
       <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="81"/>
-    <col width="9" customWidth="1" style="1" min="82" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="83"/>
+    <col width="9" customWidth="1" style="1" min="84" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5572,12 +5579,12 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="84"/>
-    <col width="9" customWidth="1" style="1" min="85" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="86"/>
+    <col width="9" customWidth="1" style="1" min="87" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5799,12 +5806,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9" customWidth="1" style="1" min="3" max="84"/>
-    <col width="9" customWidth="1" style="1" min="85" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="3" max="86"/>
+    <col width="9" customWidth="1" style="1" min="87" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6006,10 +6013,10 @@
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="28"/>
-    <col width="9" customWidth="1" style="1" min="29" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="1" max="30"/>
+    <col width="9" customWidth="1" style="1" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6471,10 +6478,10 @@
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="37"/>
-    <col width="9" customWidth="1" style="1" min="38" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="1" max="39"/>
+    <col width="9" customWidth="1" style="1" min="40" max="16384"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6493,7 +6500,7 @@
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="29.625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="4.125" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
@@ -6502,8 +6509,8 @@
     <col width="19.25" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
     <col width="15.125" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
     <col width="9" customWidth="1" style="27" min="7" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="44"/>
-    <col width="9" customWidth="1" style="1" min="45" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="8" max="46"/>
+    <col width="9" customWidth="1" style="1" min="47" max="16384"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -8567,7 +8574,7 @@
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="13" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
     <col width="21.375" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
@@ -8580,8 +8587,8 @@
     <col width="9" customWidth="1" style="5" min="9" max="9"/>
     <col width="9.75" customWidth="1" style="5" min="10" max="10"/>
     <col width="9" customWidth="1" style="6" min="11" max="11"/>
-    <col width="9" customWidth="1" style="1" min="12" max="48"/>
-    <col width="9" customWidth="1" style="1" min="49" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="12" max="50"/>
+    <col width="9" customWidth="1" style="1" min="51" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9816,7 +9823,7 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>1</v>
@@ -9936,7 +9943,7 @@
         </is>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>1</v>
@@ -10059,7 +10066,7 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>2</v>
@@ -10099,7 +10106,7 @@
         </is>
       </c>
       <c r="C43" s="5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>2</v>
@@ -11373,7 +11380,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col width="3.25" customWidth="1" style="1" min="1" max="1"/>
     <col width="8.75" customWidth="1" style="1" min="2" max="2"/>
@@ -11399,8 +11406,8 @@
     <col width="4.125" customWidth="1" style="1" min="35" max="37"/>
     <col width="8.75" customWidth="1" style="1" min="38" max="38"/>
     <col width="4.125" customWidth="1" style="1" min="39" max="41"/>
-    <col width="8.75" customWidth="1" style="1" min="42" max="115"/>
-    <col width="8.75" customWidth="1" style="1" min="116" max="16384"/>
+    <col width="8.75" customWidth="1" style="1" min="42" max="117"/>
+    <col width="8.75" customWidth="1" style="1" min="118" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12147,7 +12154,7 @@
         </is>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>30</v>
@@ -12211,7 +12218,7 @@
         </is>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>60</v>
@@ -12572,7 +12579,7 @@
         </is>
       </c>
       <c r="D37" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>30</v>
@@ -12636,7 +12643,7 @@
         </is>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>60</v>
@@ -13111,7 +13118,7 @@
         </is>
       </c>
       <c r="D55" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>60</v>
@@ -14057,7 +14064,7 @@
       <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
     <col width="4.5" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="8.75" customWidth="1" style="1" min="2" max="2"/>
@@ -14085,8 +14092,8 @@
     <col width="4.125" customWidth="1" style="1" min="52" max="54"/>
     <col width="8.75" customWidth="1" style="1" min="55" max="55"/>
     <col width="4.125" customWidth="1" style="1" min="56" max="58"/>
-    <col width="8.75" customWidth="1" style="1" min="59" max="132"/>
-    <col width="8.75" customWidth="1" style="1" min="133" max="16384"/>
+    <col width="8.75" customWidth="1" style="1" min="59" max="134"/>
+    <col width="8.75" customWidth="1" style="1" min="135" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="11">
@@ -14975,60 +14982,252 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>鎧</t>
+        </is>
+      </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
+          <t>ミスリルアーマー</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>60</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>鎧</t>
+        </is>
+      </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
+          <t>鉄の鎧</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>左手</t>
+        </is>
+      </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
+          <t>ミスリルシールド</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>靴</t>
+        </is>
+      </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
+          <t>ミスリルブーツ</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>60</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>鎧</t>
+        </is>
+      </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
+          <t>鉄の鎧</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>30</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>左手</t>
+        </is>
+      </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
+          <t>鉄の盾</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>30</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -23955,11 +24154,11 @@
   </sheetPr>
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="16.625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="2" max="12"/>
@@ -23967,7 +24166,8 @@
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="14" max="15"/>
     <col width="15.125" customWidth="1" style="1" min="16" max="16"/>
     <col width="15.125" bestFit="1" customWidth="1" style="1" min="17" max="18"/>
-    <col width="9" customWidth="1" style="1" min="19" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="19" max="20"/>
+    <col width="9" customWidth="1" style="1" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -24486,55 +24686,55 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>750</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>1200</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>1200</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>1600</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>3000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -24824,52 +25024,52 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>3</v>
+        <v>600</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>3</v>
+        <v>600</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>3</v>
+        <v>750</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>3</v>
+        <v>1200</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>3</v>
+        <v>1200</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>3</v>
+        <v>1600</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>3</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15">
@@ -24882,52 +25082,52 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>2</v>
+        <v>600</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>2</v>
+        <v>1500</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>2</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="16"/>
@@ -26530,6 +26730,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -26545,11 +26746,11 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="13.375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="9" customWidth="1" style="1" min="2" max="38"/>
-    <col width="9" customWidth="1" style="1" min="39" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="2" max="40"/>
+    <col width="9" customWidth="1" style="1" min="41" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -26639,7 +26840,7 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -26659,7 +26860,7 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -26699,17 +26900,17 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>バラ肉</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -26969,7 +27170,7 @@
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="25.5" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
     <col width="5.75" customWidth="1" style="1" min="2" max="4"/>
@@ -26984,8 +27185,8 @@
     <col width="11.125" bestFit="1" customWidth="1" style="1" min="20" max="20"/>
     <col width="11.125" customWidth="1" style="1" min="21" max="21"/>
     <col width="11.125" bestFit="1" customWidth="1" style="1" min="22" max="22"/>
-    <col width="9" customWidth="1" style="1" min="23" max="58"/>
-    <col width="9" customWidth="1" style="1" min="59" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="23" max="60"/>
+    <col width="9" customWidth="1" style="1" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
